--- a/TCN半自动卡/tcn半自动人物卡v0.1.5.xlsx
+++ b/TCN半自动卡/tcn半自动人物卡v0.1.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The Chaos Node\The-Chaos-Node\TCN半自动卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEST\Desktop\The Chaos Node\The-Chaos-Node\TCN半自动卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB3665-1E66-448F-948F-289A43356600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17581319-7355-4DE8-B4CB-A59290BE9776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B640269-A400-42CF-A7BF-7B37D2BC0D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6B640269-A400-42CF-A7BF-7B37D2BC0D05}"/>
   </bookViews>
   <sheets>
     <sheet name="人物卡" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="附表" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="种族表" sheetId="3" r:id="rId4"/>
     <sheet name="法术表（未完成）" sheetId="4" r:id="rId5"/>
+    <sheet name="机甲表" sheetId="8" r:id="rId6"/>
+    <sheet name="属性投掷" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="APP">人物卡!$J$8</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="432">
   <si>
     <t>人物信息</t>
   </si>
@@ -701,10 +703,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>san</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -989,9 +987,6 @@
     <t>恶魔</t>
   </si>
   <si>
-    <t>幸运点数（/5）个自由属性骰，（）内为可分配骰子的上限</t>
-  </si>
-  <si>
     <t>多形态种族采用一般类人形态</t>
   </si>
   <si>
@@ -1001,12 +996,6 @@
     <t>3d6+(3d6)</t>
   </si>
   <si>
-    <t>3d8-3+(3d6)</t>
-  </si>
-  <si>
-    <t>3d6+(d6)</t>
-  </si>
-  <si>
     <t>红外-紫</t>
   </si>
   <si>
@@ -1028,9 +1017,6 @@
     <t>2d6+12</t>
   </si>
   <si>
-    <t>D6+15</t>
-  </si>
-  <si>
     <t>红外-远紫外</t>
   </si>
   <si>
@@ -1046,9 +1032,6 @@
     <t>3d6+</t>
   </si>
   <si>
-    <t>3d6-3</t>
-  </si>
-  <si>
     <t>看本体</t>
   </si>
   <si>
@@ -1148,12 +1131,6 @@
     <t>灵体，有完整施法能力，权能体系，能力看株系</t>
   </si>
   <si>
-    <t>(体型看宿主)</t>
-  </si>
-  <si>
-    <t>(3d8-3)</t>
-  </si>
-  <si>
     <t>神</t>
   </si>
   <si>
@@ -1169,9 +1146,6 @@
     <t>灵能章鱼</t>
   </si>
   <si>
-    <t>4d6+6</t>
-  </si>
-  <si>
     <t>电场感知+光学感知：本底-远紫外</t>
   </si>
   <si>
@@ -1187,9 +1161,6 @@
   </si>
   <si>
     <t>4#d6&gt;4</t>
-  </si>
-  <si>
-    <t>4#d6&gt;4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1205,10 +1176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if（d20=20，5#d6=6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>d4-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1222,10 +1189,6 @@
   </si>
   <si>
     <t>2d6(+18)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d6(+6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1692,11 +1655,257 @@
     <t>最终属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>种族编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类12岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵能章鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d6+(3d6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d6+12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d6+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3d6+3 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d6+6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6#d8&gt;7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5#d4&gt;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5#d10&gt;9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8#d4&gt;3)+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4#d6&gt;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8#d6&gt;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景给属性骰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6+14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d8-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d6+6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d6-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础框架</t>
+  </si>
+  <si>
+    <t>机甲</t>
+  </si>
+  <si>
+    <t>基础框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>义体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -2579,7 +2788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2799,367 +3008,406 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3217,80 +3465,56 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3302,8 +3526,130 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="表样式 1" pivot="0" count="3" xr9:uid="{07F3F889-8C1B-46EA-A82E-3B443885CFDD}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3547,6 +3893,82 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{650C458B-43E6-4097-B38D-6DC84026A38E}" name="表7" displayName="表7" ref="A3:H12" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FA10194A-CF69-49DD-B6AE-C65D6D57EACE}" name="列1" headerRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DB6F9764-DEEE-4F2E-9D34-4E90A50D4FD5}" name="框架" headerRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DFF19689-2E06-4436-8E26-E6B5D015CE3A}" name="列2" headerRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DB93D916-1A6B-4FE3-BC1D-4C5F5934DCDD}" name="列3"/>
+    <tableColumn id="5" xr3:uid="{CFC0D334-D803-461E-872A-418C09CD5D66}" name="列4"/>
+    <tableColumn id="6" xr3:uid="{0E734EF0-25B5-437A-843F-C04BEFDE1D42}" name="列5"/>
+    <tableColumn id="7" xr3:uid="{9C1893ED-9738-4E5B-AA78-6FA25C17240E}" name="列6"/>
+    <tableColumn id="8" xr3:uid="{C4E0083A-F34B-4BCF-8D93-DD5B25768830}" name="列7"/>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C68B861C-C9EC-4500-86B8-7AF68B3A90E3}" name="表8" displayName="表8" ref="A13:H17" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1DB63C3F-5F3C-483D-BAFA-86491D637C8D}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{3501A873-0461-4CA2-8F20-800C0B3E7D45}" name="槽位"/>
+    <tableColumn id="3" xr3:uid="{A719597B-85D2-4C76-9D47-5E2BC6FAE7FE}" name="槽数"/>
+    <tableColumn id="4" xr3:uid="{245CC7B8-6CD6-4BDA-AED2-CFA99C2E47D3}" name="列2"/>
+    <tableColumn id="5" xr3:uid="{3FA8A132-B916-42E1-A2FA-FD8A65D30628}" name="列3"/>
+    <tableColumn id="6" xr3:uid="{16137C7B-72B4-4DDF-B4B1-E5ABADE777A4}" name="列4"/>
+    <tableColumn id="7" xr3:uid="{4A253F60-6074-47E8-86D4-38E134D87962}" name="列5"/>
+    <tableColumn id="8" xr3:uid="{2FC31EAC-2E07-469D-BC75-FAC47136FB08}" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0B0DBCFA-87B4-4B64-80D1-74043C8F1F88}" name="表9" displayName="表9" ref="A20:B22" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F4715A17-146D-4E7B-BEF6-35C963D96516}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{8543C839-05A2-496B-A4BE-735B21D73EE3}" name="列2" dataDxfId="1">
+      <calculatedColumnFormula>IF(C2,"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F6CF8DFA-5028-4C1E-AECE-E304E5642416}" name="表11" displayName="表11" ref="A24:B27" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A0DB9AE2-365F-42E2-B154-38BA12601D44}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{88D56309-71A6-4D30-8CD0-4756B18CFEA5}" name="列2"/>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECEC89E7-0FCD-4A3C-8101-E57B707566E7}" name="表9_2" displayName="表9_2" ref="D20:E22" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6085259B-ADCB-4964-AC32-B4A254DD8B05}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{C51A99E6-84C6-455E-ACE7-1D08CB011F3D}" name="列2" dataDxfId="0">
+      <calculatedColumnFormula>IF(F2,"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EFA3FA8-6769-497A-965E-A995EBD8F249}" name="表11_3" displayName="表11_3" ref="D24:E27" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07A4C167-F714-4C75-A6A6-CA4D80A69D26}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{E6220414-2895-4F93-9454-F2AC86A1D0E8}" name="列2"/>
+  </tableColumns>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3848,49 +4270,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEBFC3E-8C7C-4660-AE7F-D6DC589AC1E2}">
   <dimension ref="B2:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8.08203125" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" customWidth="1"/>
-    <col min="13" max="13" width="9.08203125" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
     <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="15" width="8.58203125" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="16" width="8.25" customWidth="1"/>
-    <col min="17" max="17" width="5.58203125" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
     <col min="19" max="19" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="B2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="73" t="s">
+      <c r="B2" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
       <c r="O2" s="70"/>
-      <c r="P2" s="121" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
+      <c r="P2" s="203" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
@@ -3905,36 +4327,36 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="17" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
+        <v>311</v>
+      </c>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -3948,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="71">
+      <c r="F4" s="130">
         <f>SUM(H4:H8,L4:L7)</f>
         <v>0</v>
       </c>
@@ -3970,10 +4392,10 @@
         <f>L4+M4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -3987,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="72"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
@@ -4006,10 +4428,10 @@
         <f t="shared" ref="N5:N8" si="0">L5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -4024,7 +4446,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="17" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>152</v>
@@ -4044,10 +4466,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -4061,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="71">
+      <c r="F7" s="130">
         <f>SUM(J4:J8,N4:N7)</f>
         <v>0</v>
       </c>
@@ -4083,24 +4505,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="2:22" ht="14.5" thickBot="1">
-      <c r="B8" s="178" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="72"/>
+    <row r="8" spans="2:22" ht="15" thickBot="1">
+      <c r="B8" s="185" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="18" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4109,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="L8" s="18">
         <f>L6</f>
@@ -4120,138 +4542,138 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="185" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="187" t="s">
-        <v>324</v>
-      </c>
-      <c r="J9" s="188">
+      <c r="B9" s="193" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195" t="s">
+        <v>312</v>
+      </c>
+      <c r="J9" s="196">
         <f>5*EDU+3*INT</f>
         <v>0</v>
       </c>
-      <c r="K9" s="187" t="s">
-        <v>196</v>
-      </c>
-      <c r="L9" s="188">
+      <c r="K9" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="196">
         <f>SUM(人物卡!C15:C147,人物卡!E15:E147,人物卡!H15:H147,Q15:Q19)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="187" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="190">
+      <c r="M9" s="195" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="198">
         <f>J9-L9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="179"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="191"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="199"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="179" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="181"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
+      <c r="B11" s="186" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="188"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
       <c r="T11" s="16"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="2:22" ht="14.5" thickBot="1">
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="184"/>
+    <row r="12" spans="2:22" ht="15" thickBot="1">
+      <c r="B12" s="189"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="191"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="212"/>
-      <c r="N13" s="126" t="s">
-        <v>165</v>
-      </c>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="202"/>
+      <c r="N13" s="204" t="s">
+        <v>164</v>
+      </c>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -4277,7 +4699,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>26</v>
@@ -4289,36 +4711,36 @@
         <v>16</v>
       </c>
       <c r="N14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O14" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="125" t="s">
+      <c r="P14" s="133"/>
+      <c r="Q14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="R14" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="S14" s="125"/>
+      <c r="R14" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="S14" s="133"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="214" t="s">
+      <c r="F15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="215"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -4331,28 +4753,28 @@
         <f>IF(N32="","",N32)</f>
         <v/>
       </c>
-      <c r="O15" s="122" t="str">
+      <c r="O15" s="117" t="str">
         <f>IF(R32="","",100-R32*10)</f>
         <v/>
       </c>
-      <c r="P15" s="122"/>
+      <c r="P15" s="117"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="122" t="str">
+      <c r="R15" s="117" t="str">
         <f>IF(O15="","",O15+Q15)</f>
         <v/>
       </c>
-      <c r="S15" s="122"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="113" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="113"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="78" t="s">
         <v>20</v>
       </c>
@@ -4369,30 +4791,30 @@
         <f t="shared" ref="N16:N19" si="1">IF(N33="","",N33)</f>
         <v/>
       </c>
-      <c r="O16" s="123" t="str">
+      <c r="O16" s="118" t="str">
         <f t="shared" ref="O16:O19" si="2">IF(R33="","",100-R33*10)</f>
         <v/>
       </c>
-      <c r="P16" s="123"/>
+      <c r="P16" s="118"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="123" t="str">
+      <c r="R16" s="118" t="str">
         <f t="shared" ref="R16:R19" si="3">IF(O16="","",O16+Q16)</f>
         <v/>
       </c>
-      <c r="S16" s="123"/>
+      <c r="S16" s="118"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="216" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="217"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -4405,24 +4827,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O17" s="122" t="str">
+      <c r="O17" s="117" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="122"/>
+      <c r="P17" s="117"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="122" t="str">
+      <c r="R17" s="117" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="122"/>
+      <c r="S17" s="117"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="22" t="s">
         <v>21</v>
       </c>
@@ -4443,32 +4865,32 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O18" s="123" t="str">
+      <c r="O18" s="118" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="123"/>
+      <c r="P18" s="118"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="123" t="str">
+      <c r="R18" s="118" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="123"/>
+      <c r="S18" s="118"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="95" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="216" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="217"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4481,27 +4903,27 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O19" s="122" t="str">
+      <c r="O19" s="117" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="122"/>
+      <c r="P19" s="117"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="122" t="str">
+      <c r="R19" s="117" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="122"/>
+      <c r="S19" s="117"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="119" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="120"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4512,14 +4934,14 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="216" t="s">
-        <v>365</v>
-      </c>
-      <c r="G21" s="217"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" s="77"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -4528,18 +4950,18 @@
         <v>0</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="N21" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
+      <c r="N21" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="21" t="s">
         <v>36</v>
       </c>
@@ -4557,29 +4979,29 @@
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="O22" s="125">
+        <v>170</v>
+      </c>
+      <c r="O22" s="133">
         <v>3</v>
       </c>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="214" t="s">
+      <c r="F23" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="215"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4589,24 +5011,24 @@
       </c>
       <c r="L23" s="2"/>
       <c r="N23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="117">
+        <v>2</v>
+      </c>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="O23" s="122">
-        <v>2</v>
-      </c>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="R23" s="122">
+      <c r="R23" s="117">
         <f>O23-SUM(R25:S29)</f>
         <v>2</v>
       </c>
-      <c r="S23" s="122"/>
+      <c r="S23" s="117"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="19" t="s">
         <v>29</v>
       </c>
@@ -4624,27 +5046,27 @@
       </c>
       <c r="L24" s="1"/>
       <c r="N24" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="S24" s="125"/>
+        <v>316</v>
+      </c>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="S24" s="133"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="214" t="s">
+      <c r="F25" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="215"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -4654,17 +5076,17 @@
       </c>
       <c r="L25" s="2"/>
       <c r="N25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
+        <v>174</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="19" t="s">
         <v>31</v>
       </c>
@@ -4682,25 +5104,25 @@
       </c>
       <c r="L26" s="1"/>
       <c r="N26" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
+        <v>343</v>
+      </c>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="111" t="s">
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="214" t="s">
+      <c r="E27" s="88"/>
+      <c r="F27" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="215"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4710,23 +5132,23 @@
       </c>
       <c r="L27" s="2"/>
       <c r="N27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
+        <v>175</v>
+      </c>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="119" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="120"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4736,23 +5158,23 @@
       </c>
       <c r="L28" s="1"/>
       <c r="N28" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
+        <v>176</v>
+      </c>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="216" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="217"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -4762,21 +5184,21 @@
       </c>
       <c r="L29" s="2"/>
       <c r="N29" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
+        <v>367</v>
+      </c>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="113" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="78" t="s">
         <v>34</v>
       </c>
@@ -4789,22 +5211,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="222" t="s">
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="223"/>
+      <c r="G31" s="229"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
@@ -4814,31 +5236,31 @@
       </c>
       <c r="L31" s="57"/>
       <c r="N31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O31" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="O31" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122" t="s">
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="S31" s="122"/>
+      <c r="S31" s="117"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="125" t="s">
+      <c r="F32" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="125"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4848,23 +5270,23 @@
       </c>
       <c r="L32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="75"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="129"/>
     </row>
     <row r="33" spans="2:22" ht="16.5">
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="219" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="219"/>
-      <c r="F33" s="122" t="s">
+      <c r="E33" s="225"/>
+      <c r="F33" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="122"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -4874,22 +5296,22 @@
       </c>
       <c r="L33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="103"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="100"/>
       <c r="U33" s="12"/>
     </row>
     <row r="34" spans="2:22" ht="16.5">
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4899,22 +5321,22 @@
       </c>
       <c r="L34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="75"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="129"/>
       <c r="U34" s="12"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="221" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="221"/>
+      <c r="G35" s="227"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -4924,21 +5346,21 @@
       </c>
       <c r="L35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="228"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="103"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="100"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="219"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="125" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4948,21 +5370,21 @@
       </c>
       <c r="L36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="75"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="129"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="219"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="122" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="122"/>
+      <c r="G37" s="117"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4973,14 +5395,14 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="220" t="s">
-        <v>364</v>
-      </c>
-      <c r="G38" s="125"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="226" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" s="133"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -4989,26 +5411,26 @@
         <v>0</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="N38" s="229" t="s">
-        <v>159</v>
-      </c>
-      <c r="O38" s="230"/>
-      <c r="P38" s="230"/>
-      <c r="Q38" s="231"/>
-      <c r="T38" s="227" t="s">
-        <v>191</v>
-      </c>
-      <c r="U38" s="227"/>
+      <c r="N38" s="232" t="s">
+        <v>158</v>
+      </c>
+      <c r="O38" s="233"/>
+      <c r="P38" s="233"/>
+      <c r="Q38" s="234"/>
+      <c r="T38" s="230" t="s">
+        <v>190</v>
+      </c>
+      <c r="U38" s="230"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="221" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="221"/>
+      <c r="G39" s="227"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -5018,32 +5440,32 @@
       </c>
       <c r="L39" s="6"/>
       <c r="N39" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="P39" s="224">
+        <v>163</v>
+      </c>
+      <c r="P39" s="223">
         <f>IF(H6&lt;100,INT((J5+H6)/10),INT(CON/10)+ROUND(SQRT(H6),0))</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="224"/>
+      <c r="Q39" s="223"/>
       <c r="T39" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U39" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="219"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="194" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="225"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="195"/>
+      <c r="G40" s="208"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5053,28 +5475,28 @@
       </c>
       <c r="L40" s="5"/>
       <c r="N40" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="P40" s="225">
+        <v>163</v>
+      </c>
+      <c r="P40" s="235">
         <f>N6/5</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="225"/>
+      <c r="Q40" s="235"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="60"/>
-      <c r="F41" s="102" t="s">
+      <c r="F41" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="103"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -5084,28 +5506,28 @@
       </c>
       <c r="L41" s="6"/>
       <c r="N41" s="42" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="O41" s="43" t="str">
         <f>IF(Build="请查表","",IF(Build&lt;3,IF(AND(J7&lt;J6,J4&lt;J6),7,IF(AND(J7&gt;J6,J4&gt;J6),9,8)),IF(AND(J7&lt;J6,J4&lt;J6),7,IF(AND(J7&gt;J6,J4&gt;J6),Build*2+5,Build+6))))</f>
         <v/>
       </c>
-      <c r="P41" s="226" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q41" s="226"/>
+      <c r="P41" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="237"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="104" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="74" t="s">
+      <c r="E42" s="101"/>
+      <c r="F42" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="75"/>
+      <c r="G42" s="129"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5115,24 +5537,24 @@
       </c>
       <c r="L42" s="5"/>
       <c r="N42" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="O42" s="225" t="str">
+        <v>161</v>
+      </c>
+      <c r="O42" s="235" t="str">
         <f>IF(Build="请查表","请查表",IF(Build&lt;4,LOOKUP(Build,附表!G3:G9,附表!F3:F9),Build-1&amp;"d6"))</f>
         <v>请查表</v>
       </c>
-      <c r="P42" s="225"/>
-      <c r="Q42" s="225"/>
+      <c r="P42" s="235"/>
+      <c r="Q42" s="235"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="102" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="103"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -5142,24 +5564,24 @@
       </c>
       <c r="L43" s="6"/>
       <c r="N43" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="O43" s="232" t="str">
+        <v>162</v>
+      </c>
+      <c r="O43" s="236" t="str">
         <f>IF(SUM(STR,SIZ)&lt;1,"请查表",IF(AND(1&lt;SUM(J4,J6),SUM(J4,J6)&lt;65),-2,IF(AND(64&lt;SUM(J4,J6),SUM(J4,J6)&lt;85),-1,IF(AND(84&lt;SUM(J4,J6),SUM(J4,J6)&lt;125),0,IF(AND(124&lt;SUM(J4,J6),SUM(J4,J6)&lt;165),1,IF(AND(164&lt;SUM(J4,J6),SUM(J4,J6)&lt;205),2,IF(AND(204&lt;SUM(J4,J6),SUM(J4,J6)&lt;285),3,IF(AND(284&lt;SUM(J4,J6),SUM(J4,J6)&lt;399),4,INT(3+0.1*SQRT(SUM(STR,SIZ)))))))))))</f>
         <v>请查表</v>
       </c>
-      <c r="P43" s="232"/>
-      <c r="Q43" s="232"/>
+      <c r="P43" s="236"/>
+      <c r="Q43" s="236"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="102" t="s">
-        <v>366</v>
-      </c>
-      <c r="G44" s="103"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="99" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="100"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -5169,24 +5591,24 @@
       </c>
       <c r="L44" s="5"/>
       <c r="N44" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="O44" s="225" t="str">
+        <v>304</v>
+      </c>
+      <c r="O44" s="235" t="str">
         <f>IF(SUM(STR,DEX)&lt;1,"请查表",IF(AND(1&lt;SUM(STR,DEX),SUM(J4,J7)&lt;65),-2,IF(AND(64&lt;SUM(J4,J7),SUM(J4,J7)&lt;85),-1,IF(AND(84&lt;SUM(J4,J7),SUM(J4,J7)&lt;125),0,IF(AND(124&lt;SUM(J4,J7),SUM(J4,J7)&lt;165),1,IF(AND(164&lt;SUM(J4,J7),SUM(J4,J7)&lt;205),2,IF(AND(204&lt;SUM(J4,J7),SUM(J4,J7)&lt;285),3,IF(AND(284&lt;SUM(J4,J7),SUM(J4,J7)&lt;399),4,INT(3+0.1*SQRT(SUM(STR,DEX)))))))))))</f>
         <v>请查表</v>
       </c>
-      <c r="P44" s="225"/>
-      <c r="Q44" s="225"/>
+      <c r="P44" s="235"/>
+      <c r="Q44" s="235"/>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="194" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="195"/>
+      <c r="G45" s="208"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5196,29 +5618,29 @@
       </c>
       <c r="L45" s="6"/>
       <c r="N45" s="42" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q45" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="61" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="60"/>
-      <c r="F46" s="102" t="s">
+      <c r="F46" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="103"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5228,25 +5650,25 @@
       </c>
       <c r="L46" s="6"/>
       <c r="N46" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="O46" s="209" t="s">
-        <v>164</v>
-      </c>
-      <c r="P46" s="209"/>
+        <v>340</v>
+      </c>
+      <c r="O46" s="222" t="s">
+        <v>163</v>
+      </c>
+      <c r="P46" s="222"/>
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="62" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="50"/>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="75"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5257,16 +5679,16 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="61" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="60"/>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="103"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5275,29 +5697,29 @@
         <v>0</v>
       </c>
       <c r="L48" s="6"/>
-      <c r="N48" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140"/>
-      <c r="Q48" s="140"/>
-      <c r="R48" s="140"/>
-      <c r="S48" s="140"/>
-      <c r="T48" s="140"/>
-      <c r="U48" s="140"/>
-      <c r="V48" s="141"/>
+      <c r="N48" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="U48" s="147"/>
+      <c r="V48" s="148"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="62" t="s">
         <v>54</v>
       </c>
       <c r="E49" s="50"/>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="75"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5307,38 +5729,38 @@
       </c>
       <c r="L49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="P49" s="5" t="s">
+      <c r="Q49" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="R49" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="S49" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="S49" s="206" t="s">
-        <v>185</v>
-      </c>
-      <c r="T49" s="207"/>
-      <c r="U49" s="207"/>
-      <c r="V49" s="208"/>
+      <c r="T49" s="220"/>
+      <c r="U49" s="220"/>
+      <c r="V49" s="221"/>
     </row>
     <row r="50" spans="2:22">
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="63" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E50" s="59"/>
-      <c r="F50" s="196" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" s="197"/>
+      <c r="F50" s="209" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="210"/>
       <c r="H50" s="64"/>
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
@@ -5352,24 +5774,24 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="133"/>
-      <c r="T50" s="134"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="135"/>
+      <c r="S50" s="140"/>
+      <c r="T50" s="141"/>
+      <c r="U50" s="141"/>
+      <c r="V50" s="142"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="99"/>
+      <c r="C51" s="83"/>
       <c r="D51" s="55" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E51" s="55"/>
-      <c r="F51" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="G51" s="199"/>
+      <c r="F51" s="211" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" s="212"/>
       <c r="H51" s="58"/>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -5383,22 +5805,22 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="206"/>
-      <c r="T51" s="207"/>
-      <c r="U51" s="207"/>
-      <c r="V51" s="208"/>
+      <c r="S51" s="219"/>
+      <c r="T51" s="220"/>
+      <c r="U51" s="220"/>
+      <c r="V51" s="221"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="22"/>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="77"/>
+      <c r="G52" s="110"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -5412,22 +5834,22 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="133"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="135"/>
+      <c r="S52" s="140"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="142"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
       <c r="D53" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="23"/>
-      <c r="F53" s="90" t="s">
+      <c r="F53" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="91"/>
+      <c r="G53" s="112"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5441,22 +5863,22 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="206"/>
-      <c r="T53" s="207"/>
-      <c r="U53" s="207"/>
-      <c r="V53" s="208"/>
+      <c r="S53" s="219"/>
+      <c r="T53" s="220"/>
+      <c r="U53" s="220"/>
+      <c r="V53" s="221"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="111" t="s">
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="84" t="s">
-        <v>332</v>
-      </c>
-      <c r="G54" s="85"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="104"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -5470,20 +5892,20 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="134"/>
-      <c r="V54" s="135"/>
+      <c r="S54" s="140"/>
+      <c r="T54" s="141"/>
+      <c r="U54" s="141"/>
+      <c r="V54" s="142"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="82" t="s">
-        <v>333</v>
-      </c>
-      <c r="G55" s="83"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" s="127"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5497,22 +5919,22 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="206"/>
-      <c r="T55" s="207"/>
-      <c r="U55" s="207"/>
-      <c r="V55" s="208"/>
+      <c r="S55" s="219"/>
+      <c r="T55" s="220"/>
+      <c r="U55" s="220"/>
+      <c r="V55" s="221"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="113" t="s">
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="113"/>
-      <c r="F56" s="76" t="s">
+      <c r="E56" s="92"/>
+      <c r="F56" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="77"/>
+      <c r="G56" s="110"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -5526,16 +5948,16 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="134"/>
-      <c r="V56" s="135"/>
+      <c r="S56" s="140"/>
+      <c r="T56" s="141"/>
+      <c r="U56" s="141"/>
+      <c r="V56" s="142"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="78" t="s">
         <v>147</v>
       </c>
@@ -5553,20 +5975,20 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="206"/>
-      <c r="T57" s="207"/>
-      <c r="U57" s="207"/>
-      <c r="V57" s="208"/>
+      <c r="S57" s="219"/>
+      <c r="T57" s="220"/>
+      <c r="U57" s="220"/>
+      <c r="V57" s="221"/>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="80" t="s">
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="81"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -5580,16 +6002,16 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="133"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="134"/>
-      <c r="V58" s="135"/>
+      <c r="S58" s="140"/>
+      <c r="T58" s="141"/>
+      <c r="U58" s="141"/>
+      <c r="V58" s="142"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="78" t="s">
         <v>66</v>
       </c>
@@ -5607,20 +6029,20 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="206"/>
-      <c r="T59" s="207"/>
-      <c r="U59" s="207"/>
-      <c r="V59" s="208"/>
+      <c r="S59" s="219"/>
+      <c r="T59" s="220"/>
+      <c r="U59" s="220"/>
+      <c r="V59" s="221"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="80" t="s">
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="81"/>
+      <c r="G60" s="114"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
@@ -5634,16 +6056,16 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="133"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="134"/>
-      <c r="V60" s="135"/>
+      <c r="S60" s="140"/>
+      <c r="T60" s="141"/>
+      <c r="U60" s="141"/>
+      <c r="V60" s="142"/>
     </row>
     <row r="61" spans="2:22">
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="78" t="s">
         <v>68</v>
       </c>
@@ -5661,20 +6083,20 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="206"/>
-      <c r="T61" s="207"/>
-      <c r="U61" s="207"/>
-      <c r="V61" s="208"/>
+      <c r="S61" s="219"/>
+      <c r="T61" s="220"/>
+      <c r="U61" s="220"/>
+      <c r="V61" s="221"/>
     </row>
     <row r="62" spans="2:22">
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="80" t="s">
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="81"/>
+      <c r="G62" s="114"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -5688,16 +6110,16 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="133"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="134"/>
-      <c r="V62" s="135"/>
+      <c r="S62" s="140"/>
+      <c r="T62" s="141"/>
+      <c r="U62" s="141"/>
+      <c r="V62" s="142"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="78" t="s">
         <v>60</v>
       </c>
@@ -5715,20 +6137,20 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
-      <c r="S63" s="206"/>
-      <c r="T63" s="207"/>
-      <c r="U63" s="207"/>
-      <c r="V63" s="208"/>
+      <c r="S63" s="219"/>
+      <c r="T63" s="220"/>
+      <c r="U63" s="220"/>
+      <c r="V63" s="221"/>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="92" t="s">
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="93"/>
+      <c r="G64" s="116"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
@@ -5742,14 +6164,14 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="133"/>
-      <c r="T64" s="134"/>
-      <c r="U64" s="134"/>
-      <c r="V64" s="135"/>
+      <c r="S64" s="140"/>
+      <c r="T64" s="141"/>
+      <c r="U64" s="141"/>
+      <c r="V64" s="142"/>
     </row>
     <row r="65" spans="2:22">
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="22" t="s">
         <v>71</v>
       </c>
@@ -5771,22 +6193,22 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
-      <c r="S65" s="206"/>
-      <c r="T65" s="207"/>
-      <c r="U65" s="207"/>
-      <c r="V65" s="208"/>
+      <c r="S65" s="219"/>
+      <c r="T65" s="220"/>
+      <c r="U65" s="220"/>
+      <c r="V65" s="221"/>
     </row>
     <row r="66" spans="2:22">
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
       <c r="D66" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="23"/>
-      <c r="F66" s="80" t="s">
+      <c r="F66" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="81"/>
+      <c r="G66" s="114"/>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
@@ -5800,14 +6222,14 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="133"/>
-      <c r="T66" s="134"/>
-      <c r="U66" s="134"/>
-      <c r="V66" s="135"/>
+      <c r="S66" s="140"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="142"/>
     </row>
     <row r="67" spans="2:22">
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
       <c r="D67" s="22" t="s">
         <v>63</v>
       </c>
@@ -5829,22 +6251,22 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
-      <c r="S67" s="206"/>
-      <c r="T67" s="207"/>
-      <c r="U67" s="207"/>
-      <c r="V67" s="208"/>
+      <c r="S67" s="219"/>
+      <c r="T67" s="220"/>
+      <c r="U67" s="220"/>
+      <c r="V67" s="221"/>
     </row>
     <row r="68" spans="2:22">
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="76" t="s">
+      <c r="F68" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="77"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -5858,22 +6280,22 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="133"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="134"/>
-      <c r="V68" s="135"/>
+      <c r="S68" s="140"/>
+      <c r="T68" s="141"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="142"/>
     </row>
     <row r="69" spans="2:22">
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="37"/>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="91"/>
+      <c r="G69" s="112"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5887,24 +6309,24 @@
       <c r="P69" s="25"/>
       <c r="Q69" s="25"/>
       <c r="R69" s="25"/>
-      <c r="S69" s="206"/>
-      <c r="T69" s="207"/>
-      <c r="U69" s="207"/>
-      <c r="V69" s="208"/>
+      <c r="S69" s="219"/>
+      <c r="T69" s="220"/>
+      <c r="U69" s="220"/>
+      <c r="V69" s="221"/>
     </row>
     <row r="70" spans="2:22">
-      <c r="B70" s="105" t="s">
-        <v>331</v>
-      </c>
-      <c r="C70" s="105"/>
+      <c r="B70" s="90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="90"/>
       <c r="D70" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="76" t="s">
+      <c r="F70" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="77"/>
+      <c r="G70" s="110"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -5918,22 +6340,22 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="133"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="135"/>
+      <c r="S70" s="140"/>
+      <c r="T70" s="141"/>
+      <c r="U70" s="141"/>
+      <c r="V70" s="142"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="B71" s="106"/>
-      <c r="C71" s="106"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E71" s="37"/>
-      <c r="F71" s="90" t="s">
+      <c r="F71" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="91"/>
+      <c r="G71" s="112"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5947,22 +6369,22 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
-      <c r="S71" s="206"/>
-      <c r="T71" s="207"/>
-      <c r="U71" s="207"/>
-      <c r="V71" s="208"/>
+      <c r="S71" s="219"/>
+      <c r="T71" s="220"/>
+      <c r="U71" s="220"/>
+      <c r="V71" s="221"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="B72" s="106"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="116" t="s">
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="113"/>
-      <c r="F72" s="84" t="s">
+      <c r="E72" s="92"/>
+      <c r="F72" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="85"/>
+      <c r="G72" s="104"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -5976,20 +6398,20 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="134"/>
-      <c r="V72" s="135"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="141"/>
+      <c r="U72" s="141"/>
+      <c r="V72" s="142"/>
     </row>
     <row r="73" spans="2:22">
-      <c r="B73" s="106"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="82" t="s">
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="83"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6000,14 +6422,14 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="2:22">
-      <c r="B74" s="106"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="84" t="s">
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="85"/>
+      <c r="G74" s="104"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -6017,7 +6439,7 @@
       </c>
       <c r="L74" s="3"/>
       <c r="N74" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
@@ -6029,14 +6451,14 @@
       <c r="V74" s="28"/>
     </row>
     <row r="75" spans="2:22">
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="82" t="s">
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="83"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6045,27 +6467,27 @@
         <v>0</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="N75" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="O75" s="200"/>
-      <c r="P75" s="201"/>
-      <c r="Q75" s="201"/>
-      <c r="R75" s="201"/>
-      <c r="S75" s="201"/>
-      <c r="T75" s="201"/>
-      <c r="U75" s="201"/>
-      <c r="V75" s="202"/>
+      <c r="N75" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="O75" s="213"/>
+      <c r="P75" s="214"/>
+      <c r="Q75" s="214"/>
+      <c r="R75" s="214"/>
+      <c r="S75" s="214"/>
+      <c r="T75" s="214"/>
+      <c r="U75" s="214"/>
+      <c r="V75" s="215"/>
     </row>
     <row r="76" spans="2:22">
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="84" t="s">
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="85"/>
+      <c r="G76" s="104"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -6074,25 +6496,25 @@
         <v>0</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="203"/>
-      <c r="P76" s="204"/>
-      <c r="Q76" s="204"/>
-      <c r="R76" s="204"/>
-      <c r="S76" s="204"/>
-      <c r="T76" s="204"/>
-      <c r="U76" s="204"/>
-      <c r="V76" s="205"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="216"/>
+      <c r="P76" s="217"/>
+      <c r="Q76" s="217"/>
+      <c r="R76" s="217"/>
+      <c r="S76" s="217"/>
+      <c r="T76" s="217"/>
+      <c r="U76" s="217"/>
+      <c r="V76" s="218"/>
     </row>
     <row r="77" spans="2:22">
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="G77" s="87"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="105" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77" s="106"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6101,27 +6523,27 @@
         <v>0</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="N77" s="127" t="s">
-        <v>188</v>
-      </c>
-      <c r="O77" s="142"/>
-      <c r="P77" s="143"/>
-      <c r="Q77" s="143"/>
-      <c r="R77" s="143"/>
-      <c r="S77" s="143"/>
-      <c r="T77" s="143"/>
-      <c r="U77" s="143"/>
-      <c r="V77" s="144"/>
+      <c r="N77" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="O77" s="149"/>
+      <c r="P77" s="150"/>
+      <c r="Q77" s="150"/>
+      <c r="R77" s="150"/>
+      <c r="S77" s="150"/>
+      <c r="T77" s="150"/>
+      <c r="U77" s="150"/>
+      <c r="V77" s="151"/>
     </row>
     <row r="78" spans="2:22">
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="G78" s="89"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="107" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" s="108"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -6130,25 +6552,25 @@
         <v>0</v>
       </c>
       <c r="L78" s="3"/>
-      <c r="N78" s="128"/>
-      <c r="O78" s="145"/>
-      <c r="P78" s="146"/>
-      <c r="Q78" s="146"/>
-      <c r="R78" s="146"/>
-      <c r="S78" s="146"/>
-      <c r="T78" s="146"/>
-      <c r="U78" s="146"/>
-      <c r="V78" s="147"/>
+      <c r="N78" s="135"/>
+      <c r="O78" s="152"/>
+      <c r="P78" s="153"/>
+      <c r="Q78" s="153"/>
+      <c r="R78" s="153"/>
+      <c r="S78" s="153"/>
+      <c r="T78" s="153"/>
+      <c r="U78" s="153"/>
+      <c r="V78" s="154"/>
     </row>
     <row r="79" spans="2:22">
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="G79" s="87"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="G79" s="106"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6157,27 +6579,27 @@
         <v>0</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="N79" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="O79" s="200"/>
-      <c r="P79" s="201"/>
-      <c r="Q79" s="201"/>
-      <c r="R79" s="201"/>
-      <c r="S79" s="201"/>
-      <c r="T79" s="201"/>
-      <c r="U79" s="201"/>
-      <c r="V79" s="202"/>
+      <c r="N79" s="130" t="s">
+        <v>188</v>
+      </c>
+      <c r="O79" s="213"/>
+      <c r="P79" s="214"/>
+      <c r="Q79" s="214"/>
+      <c r="R79" s="214"/>
+      <c r="S79" s="214"/>
+      <c r="T79" s="214"/>
+      <c r="U79" s="214"/>
+      <c r="V79" s="215"/>
     </row>
     <row r="80" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B80" s="106"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="G80" s="89"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" s="108"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -6186,25 +6608,25 @@
         <v>0</v>
       </c>
       <c r="L80" s="3"/>
-      <c r="N80" s="72"/>
-      <c r="O80" s="203"/>
-      <c r="P80" s="204"/>
-      <c r="Q80" s="204"/>
-      <c r="R80" s="204"/>
-      <c r="S80" s="204"/>
-      <c r="T80" s="204"/>
-      <c r="U80" s="204"/>
-      <c r="V80" s="205"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="216"/>
+      <c r="P80" s="217"/>
+      <c r="Q80" s="217"/>
+      <c r="R80" s="217"/>
+      <c r="S80" s="217"/>
+      <c r="T80" s="217"/>
+      <c r="U80" s="217"/>
+      <c r="V80" s="218"/>
     </row>
     <row r="81" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="118"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="82" t="s">
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="83"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6213,29 +6635,29 @@
         <v>0</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="N81" s="127" t="s">
-        <v>190</v>
-      </c>
-      <c r="O81" s="142"/>
-      <c r="P81" s="143"/>
-      <c r="Q81" s="143"/>
-      <c r="R81" s="143"/>
-      <c r="S81" s="143"/>
-      <c r="T81" s="143"/>
-      <c r="U81" s="143"/>
-      <c r="V81" s="144"/>
+      <c r="N81" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="O81" s="149"/>
+      <c r="P81" s="150"/>
+      <c r="Q81" s="150"/>
+      <c r="R81" s="150"/>
+      <c r="S81" s="150"/>
+      <c r="T81" s="150"/>
+      <c r="U81" s="150"/>
+      <c r="V81" s="151"/>
     </row>
     <row r="82" spans="2:22">
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="105" t="s">
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="105"/>
-      <c r="F82" s="76" t="s">
+      <c r="E82" s="90"/>
+      <c r="F82" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="77"/>
+      <c r="G82" s="110"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -6244,25 +6666,25 @@
         <v>0</v>
       </c>
       <c r="L82" s="3"/>
-      <c r="N82" s="128"/>
-      <c r="O82" s="145"/>
-      <c r="P82" s="146"/>
-      <c r="Q82" s="146"/>
-      <c r="R82" s="146"/>
-      <c r="S82" s="146"/>
-      <c r="T82" s="146"/>
-      <c r="U82" s="146"/>
-      <c r="V82" s="147"/>
+      <c r="N82" s="135"/>
+      <c r="O82" s="152"/>
+      <c r="P82" s="153"/>
+      <c r="Q82" s="153"/>
+      <c r="R82" s="153"/>
+      <c r="S82" s="153"/>
+      <c r="T82" s="153"/>
+      <c r="U82" s="153"/>
+      <c r="V82" s="154"/>
     </row>
     <row r="83" spans="2:22">
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="82" t="s">
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="83"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6271,29 +6693,29 @@
         <v>0</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="N83" s="71" t="s">
+      <c r="N83" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="O83" s="200"/>
-      <c r="P83" s="201"/>
-      <c r="Q83" s="201"/>
-      <c r="R83" s="201"/>
-      <c r="S83" s="201"/>
-      <c r="T83" s="201"/>
-      <c r="U83" s="201"/>
-      <c r="V83" s="202"/>
+      <c r="O83" s="213"/>
+      <c r="P83" s="214"/>
+      <c r="Q83" s="214"/>
+      <c r="R83" s="214"/>
+      <c r="S83" s="214"/>
+      <c r="T83" s="214"/>
+      <c r="U83" s="214"/>
+      <c r="V83" s="215"/>
     </row>
     <row r="84" spans="2:22">
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E84" s="19"/>
-      <c r="F84" s="76" t="s">
+      <c r="F84" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="77"/>
+      <c r="G84" s="110"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -6302,27 +6724,27 @@
         <v>0</v>
       </c>
       <c r="L84" s="3"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="203"/>
-      <c r="P84" s="204"/>
-      <c r="Q84" s="204"/>
-      <c r="R84" s="204"/>
-      <c r="S84" s="204"/>
-      <c r="T84" s="204"/>
-      <c r="U84" s="204"/>
-      <c r="V84" s="205"/>
+      <c r="N84" s="131"/>
+      <c r="O84" s="216"/>
+      <c r="P84" s="217"/>
+      <c r="Q84" s="217"/>
+      <c r="R84" s="217"/>
+      <c r="S84" s="217"/>
+      <c r="T84" s="217"/>
+      <c r="U84" s="217"/>
+      <c r="V84" s="218"/>
     </row>
     <row r="85" spans="2:22">
-      <c r="B85" s="106"/>
-      <c r="C85" s="106"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="36" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E85" s="37"/>
-      <c r="F85" s="90" t="s">
-        <v>330</v>
-      </c>
-      <c r="G85" s="91"/>
+      <c r="F85" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="G85" s="112"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6331,29 +6753,29 @@
         <v>0</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="N85" s="127" t="s">
-        <v>192</v>
-      </c>
-      <c r="O85" s="142"/>
-      <c r="P85" s="143"/>
-      <c r="Q85" s="143"/>
-      <c r="R85" s="143"/>
-      <c r="S85" s="143"/>
-      <c r="T85" s="143"/>
-      <c r="U85" s="143"/>
-      <c r="V85" s="144"/>
+      <c r="N85" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="O85" s="149"/>
+      <c r="P85" s="150"/>
+      <c r="Q85" s="150"/>
+      <c r="R85" s="150"/>
+      <c r="S85" s="150"/>
+      <c r="T85" s="150"/>
+      <c r="U85" s="150"/>
+      <c r="V85" s="151"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="106"/>
-      <c r="C86" s="106"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="102"/>
       <c r="D86" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E86" s="19"/>
-      <c r="F86" s="76" t="s">
+      <c r="F86" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="G86" s="77"/>
+      <c r="G86" s="110"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -6362,27 +6784,27 @@
         <v>0</v>
       </c>
       <c r="L86" s="3"/>
-      <c r="N86" s="128"/>
-      <c r="O86" s="145"/>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="146"/>
-      <c r="R86" s="146"/>
-      <c r="S86" s="146"/>
-      <c r="T86" s="146"/>
-      <c r="U86" s="146"/>
-      <c r="V86" s="147"/>
+      <c r="N86" s="135"/>
+      <c r="O86" s="152"/>
+      <c r="P86" s="153"/>
+      <c r="Q86" s="153"/>
+      <c r="R86" s="153"/>
+      <c r="S86" s="153"/>
+      <c r="T86" s="153"/>
+      <c r="U86" s="153"/>
+      <c r="V86" s="154"/>
     </row>
     <row r="87" spans="2:22">
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
       <c r="D87" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E87" s="37"/>
-      <c r="F87" s="90" t="s">
+      <c r="F87" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="91"/>
+      <c r="G87" s="112"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6391,29 +6813,29 @@
         <v>0</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="N87" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="O87" s="200"/>
-      <c r="P87" s="201"/>
-      <c r="Q87" s="201"/>
-      <c r="R87" s="201"/>
-      <c r="S87" s="201"/>
-      <c r="T87" s="201"/>
-      <c r="U87" s="201"/>
-      <c r="V87" s="202"/>
+      <c r="N87" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="O87" s="213"/>
+      <c r="P87" s="214"/>
+      <c r="Q87" s="214"/>
+      <c r="R87" s="214"/>
+      <c r="S87" s="214"/>
+      <c r="T87" s="214"/>
+      <c r="U87" s="214"/>
+      <c r="V87" s="215"/>
     </row>
     <row r="88" spans="2:22">
-      <c r="B88" s="106"/>
-      <c r="C88" s="106"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="76" t="s">
+      <c r="F88" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="77"/>
+      <c r="G88" s="110"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -6422,27 +6844,27 @@
         <v>0</v>
       </c>
       <c r="L88" s="3"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="203"/>
-      <c r="P88" s="204"/>
-      <c r="Q88" s="204"/>
-      <c r="R88" s="204"/>
-      <c r="S88" s="204"/>
-      <c r="T88" s="204"/>
-      <c r="U88" s="204"/>
-      <c r="V88" s="205"/>
+      <c r="N88" s="131"/>
+      <c r="O88" s="216"/>
+      <c r="P88" s="217"/>
+      <c r="Q88" s="217"/>
+      <c r="R88" s="217"/>
+      <c r="S88" s="217"/>
+      <c r="T88" s="217"/>
+      <c r="U88" s="217"/>
+      <c r="V88" s="218"/>
     </row>
     <row r="89" spans="2:22">
-      <c r="B89" s="106"/>
-      <c r="C89" s="106"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="36" t="s">
         <v>88</v>
       </c>
       <c r="E89" s="37"/>
-      <c r="F89" s="90" t="s">
+      <c r="F89" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="G89" s="91"/>
+      <c r="G89" s="112"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6451,29 +6873,29 @@
         <v>0</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="N89" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="O89" s="142"/>
-      <c r="P89" s="143"/>
-      <c r="Q89" s="143"/>
-      <c r="R89" s="143"/>
-      <c r="S89" s="143"/>
-      <c r="T89" s="143"/>
-      <c r="U89" s="143"/>
-      <c r="V89" s="144"/>
+      <c r="N89" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="O89" s="149"/>
+      <c r="P89" s="150"/>
+      <c r="Q89" s="150"/>
+      <c r="R89" s="150"/>
+      <c r="S89" s="150"/>
+      <c r="T89" s="150"/>
+      <c r="U89" s="150"/>
+      <c r="V89" s="151"/>
     </row>
     <row r="90" spans="2:22">
-      <c r="B90" s="106"/>
-      <c r="C90" s="106"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="19" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="76" t="s">
+      <c r="F90" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G90" s="77"/>
+      <c r="G90" s="110"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -6482,27 +6904,27 @@
         <v>0</v>
       </c>
       <c r="L90" s="3"/>
-      <c r="N90" s="128"/>
-      <c r="O90" s="145"/>
-      <c r="P90" s="146"/>
-      <c r="Q90" s="146"/>
-      <c r="R90" s="146"/>
-      <c r="S90" s="146"/>
-      <c r="T90" s="146"/>
-      <c r="U90" s="146"/>
-      <c r="V90" s="147"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="152"/>
+      <c r="P90" s="153"/>
+      <c r="Q90" s="153"/>
+      <c r="R90" s="153"/>
+      <c r="S90" s="153"/>
+      <c r="T90" s="153"/>
+      <c r="U90" s="153"/>
+      <c r="V90" s="154"/>
     </row>
     <row r="91" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="36" t="s">
         <v>90</v>
       </c>
       <c r="E91" s="37"/>
-      <c r="F91" s="90" t="s">
+      <c r="F91" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="112"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6511,27 +6933,27 @@
         <v>0</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="N91" s="153"/>
-      <c r="O91" s="154"/>
-      <c r="P91" s="154"/>
-      <c r="Q91" s="154"/>
-      <c r="R91" s="154"/>
-      <c r="S91" s="154"/>
-      <c r="T91" s="154"/>
-      <c r="U91" s="154"/>
-      <c r="V91" s="155"/>
+      <c r="N91" s="160"/>
+      <c r="O91" s="161"/>
+      <c r="P91" s="161"/>
+      <c r="Q91" s="161"/>
+      <c r="R91" s="161"/>
+      <c r="S91" s="161"/>
+      <c r="T91" s="161"/>
+      <c r="U91" s="161"/>
+      <c r="V91" s="162"/>
     </row>
     <row r="92" spans="2:22">
-      <c r="B92" s="106"/>
-      <c r="C92" s="106"/>
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
       <c r="D92" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="76" t="s">
+      <c r="F92" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="G92" s="77"/>
+      <c r="G92" s="110"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -6540,27 +6962,27 @@
         <v>0</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="N92" s="156"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="157"/>
-      <c r="Q92" s="157"/>
-      <c r="R92" s="157"/>
-      <c r="S92" s="157"/>
-      <c r="T92" s="157"/>
-      <c r="U92" s="157"/>
-      <c r="V92" s="158"/>
+      <c r="N92" s="163"/>
+      <c r="O92" s="164"/>
+      <c r="P92" s="164"/>
+      <c r="Q92" s="164"/>
+      <c r="R92" s="164"/>
+      <c r="S92" s="164"/>
+      <c r="T92" s="164"/>
+      <c r="U92" s="164"/>
+      <c r="V92" s="165"/>
     </row>
     <row r="93" spans="2:22">
-      <c r="B93" s="106"/>
-      <c r="C93" s="106"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="37" t="s">
         <v>93</v>
       </c>
       <c r="E93" s="37"/>
-      <c r="F93" s="90" t="s">
+      <c r="F93" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="112"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6569,27 +6991,27 @@
         <v>0</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="N93" s="156"/>
-      <c r="O93" s="157"/>
-      <c r="P93" s="157"/>
-      <c r="Q93" s="157"/>
-      <c r="R93" s="157"/>
-      <c r="S93" s="157"/>
-      <c r="T93" s="157"/>
-      <c r="U93" s="157"/>
-      <c r="V93" s="158"/>
+      <c r="N93" s="163"/>
+      <c r="O93" s="164"/>
+      <c r="P93" s="164"/>
+      <c r="Q93" s="164"/>
+      <c r="R93" s="164"/>
+      <c r="S93" s="164"/>
+      <c r="T93" s="164"/>
+      <c r="U93" s="164"/>
+      <c r="V93" s="165"/>
     </row>
     <row r="94" spans="2:22">
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="76" t="s">
+      <c r="F94" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="G94" s="77"/>
+      <c r="G94" s="110"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -6598,27 +7020,27 @@
         <v>0</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="N94" s="156"/>
-      <c r="O94" s="157"/>
-      <c r="P94" s="157"/>
-      <c r="Q94" s="157"/>
-      <c r="R94" s="157"/>
-      <c r="S94" s="157"/>
-      <c r="T94" s="157"/>
-      <c r="U94" s="157"/>
-      <c r="V94" s="158"/>
+      <c r="N94" s="163"/>
+      <c r="O94" s="164"/>
+      <c r="P94" s="164"/>
+      <c r="Q94" s="164"/>
+      <c r="R94" s="164"/>
+      <c r="S94" s="164"/>
+      <c r="T94" s="164"/>
+      <c r="U94" s="164"/>
+      <c r="V94" s="165"/>
     </row>
     <row r="95" spans="2:22">
-      <c r="B95" s="106"/>
-      <c r="C95" s="106"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="102"/>
       <c r="D95" s="37" t="s">
         <v>96</v>
       </c>
       <c r="E95" s="37"/>
-      <c r="F95" s="90" t="s">
+      <c r="F95" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="91"/>
+      <c r="G95" s="112"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -6627,27 +7049,27 @@
         <v>0</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="N95" s="156"/>
-      <c r="O95" s="157"/>
-      <c r="P95" s="157"/>
-      <c r="Q95" s="157"/>
-      <c r="R95" s="157"/>
-      <c r="S95" s="157"/>
-      <c r="T95" s="157"/>
-      <c r="U95" s="157"/>
-      <c r="V95" s="158"/>
+      <c r="N95" s="163"/>
+      <c r="O95" s="164"/>
+      <c r="P95" s="164"/>
+      <c r="Q95" s="164"/>
+      <c r="R95" s="164"/>
+      <c r="S95" s="164"/>
+      <c r="T95" s="164"/>
+      <c r="U95" s="164"/>
+      <c r="V95" s="165"/>
     </row>
     <row r="96" spans="2:22">
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="102"/>
       <c r="D96" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E96" s="19"/>
-      <c r="F96" s="76" t="s">
+      <c r="F96" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="G96" s="77"/>
+      <c r="G96" s="110"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -6656,28 +7078,28 @@
         <v>0</v>
       </c>
       <c r="L96" s="3"/>
-      <c r="N96" s="156"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="157"/>
-      <c r="Q96" s="157"/>
-      <c r="R96" s="157"/>
-      <c r="S96" s="157"/>
-      <c r="T96" s="157"/>
-      <c r="U96" s="157"/>
-      <c r="V96" s="158"/>
+      <c r="N96" s="163"/>
+      <c r="O96" s="164"/>
+      <c r="P96" s="164"/>
+      <c r="Q96" s="164"/>
+      <c r="R96" s="164"/>
+      <c r="S96" s="164"/>
+      <c r="T96" s="164"/>
+      <c r="U96" s="164"/>
+      <c r="V96" s="165"/>
     </row>
     <row r="97" spans="2:22">
-      <c r="B97" s="106"/>
-      <c r="C97" s="106"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="102"/>
       <c r="D97" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="29" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G97" s="47" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6687,27 +7109,27 @@
         <v>0</v>
       </c>
       <c r="L97" s="1"/>
-      <c r="N97" s="156"/>
-      <c r="O97" s="157"/>
-      <c r="P97" s="157"/>
-      <c r="Q97" s="157"/>
-      <c r="R97" s="157"/>
-      <c r="S97" s="157"/>
-      <c r="T97" s="157"/>
-      <c r="U97" s="157"/>
-      <c r="V97" s="158"/>
+      <c r="N97" s="163"/>
+      <c r="O97" s="164"/>
+      <c r="P97" s="164"/>
+      <c r="Q97" s="164"/>
+      <c r="R97" s="164"/>
+      <c r="S97" s="164"/>
+      <c r="T97" s="164"/>
+      <c r="U97" s="164"/>
+      <c r="V97" s="165"/>
     </row>
     <row r="98" spans="2:22">
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
+      <c r="B98" s="102"/>
+      <c r="C98" s="102"/>
       <c r="D98" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="23"/>
-      <c r="F98" s="80" t="s">
+      <c r="F98" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="G98" s="81"/>
+      <c r="G98" s="114"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
@@ -6716,19 +7138,19 @@
         <v>0</v>
       </c>
       <c r="L98" s="33"/>
-      <c r="N98" s="156"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="157"/>
-      <c r="Q98" s="157"/>
-      <c r="R98" s="157"/>
-      <c r="S98" s="157"/>
-      <c r="T98" s="157"/>
-      <c r="U98" s="157"/>
-      <c r="V98" s="158"/>
+      <c r="N98" s="163"/>
+      <c r="O98" s="164"/>
+      <c r="P98" s="164"/>
+      <c r="Q98" s="164"/>
+      <c r="R98" s="164"/>
+      <c r="S98" s="164"/>
+      <c r="T98" s="164"/>
+      <c r="U98" s="164"/>
+      <c r="V98" s="165"/>
     </row>
     <row r="99" spans="2:22">
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="38" t="s">
         <v>98</v>
       </c>
@@ -6745,29 +7167,29 @@
         <v>0</v>
       </c>
       <c r="L99" s="1"/>
-      <c r="N99" s="156"/>
-      <c r="O99" s="157"/>
-      <c r="P99" s="157"/>
-      <c r="Q99" s="157"/>
-      <c r="R99" s="157"/>
-      <c r="S99" s="157"/>
-      <c r="T99" s="157"/>
-      <c r="U99" s="157"/>
-      <c r="V99" s="158"/>
+      <c r="N99" s="163"/>
+      <c r="O99" s="164"/>
+      <c r="P99" s="164"/>
+      <c r="Q99" s="164"/>
+      <c r="R99" s="164"/>
+      <c r="S99" s="164"/>
+      <c r="T99" s="164"/>
+      <c r="U99" s="164"/>
+      <c r="V99" s="165"/>
     </row>
     <row r="100" spans="2:22">
-      <c r="B100" s="98" t="s">
+      <c r="B100" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="98"/>
-      <c r="D100" s="98" t="s">
+      <c r="C100" s="82"/>
+      <c r="D100" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="80" t="s">
+      <c r="E100" s="82"/>
+      <c r="F100" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="G100" s="81"/>
+      <c r="G100" s="114"/>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -6776,21 +7198,21 @@
         <v>0</v>
       </c>
       <c r="L100" s="33"/>
-      <c r="N100" s="156"/>
-      <c r="O100" s="157"/>
-      <c r="P100" s="157"/>
-      <c r="Q100" s="157"/>
-      <c r="R100" s="157"/>
-      <c r="S100" s="157"/>
-      <c r="T100" s="157"/>
-      <c r="U100" s="157"/>
-      <c r="V100" s="158"/>
+      <c r="N100" s="163"/>
+      <c r="O100" s="164"/>
+      <c r="P100" s="164"/>
+      <c r="Q100" s="164"/>
+      <c r="R100" s="164"/>
+      <c r="S100" s="164"/>
+      <c r="T100" s="164"/>
+      <c r="U100" s="164"/>
+      <c r="V100" s="165"/>
     </row>
     <row r="101" spans="2:22">
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
       <c r="F101" s="78" t="s">
         <v>102</v>
       </c>
@@ -6803,27 +7225,27 @@
         <v>0</v>
       </c>
       <c r="L101" s="1"/>
-      <c r="N101" s="156"/>
-      <c r="O101" s="157"/>
-      <c r="P101" s="157"/>
-      <c r="Q101" s="157"/>
-      <c r="R101" s="157"/>
-      <c r="S101" s="157"/>
-      <c r="T101" s="157"/>
-      <c r="U101" s="157"/>
-      <c r="V101" s="158"/>
+      <c r="N101" s="163"/>
+      <c r="O101" s="164"/>
+      <c r="P101" s="164"/>
+      <c r="Q101" s="164"/>
+      <c r="R101" s="164"/>
+      <c r="S101" s="164"/>
+      <c r="T101" s="164"/>
+      <c r="U101" s="164"/>
+      <c r="V101" s="165"/>
     </row>
     <row r="102" spans="2:22">
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="83"/>
       <c r="D102" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E102" s="37"/>
-      <c r="F102" s="80" t="s">
+      <c r="F102" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="G102" s="81"/>
+      <c r="G102" s="114"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
@@ -6832,23 +7254,23 @@
         <v>0</v>
       </c>
       <c r="L102" s="33"/>
-      <c r="N102" s="156"/>
-      <c r="O102" s="157"/>
-      <c r="P102" s="157"/>
-      <c r="Q102" s="157"/>
-      <c r="R102" s="157"/>
-      <c r="S102" s="157"/>
-      <c r="T102" s="157"/>
-      <c r="U102" s="157"/>
-      <c r="V102" s="158"/>
+      <c r="N102" s="163"/>
+      <c r="O102" s="164"/>
+      <c r="P102" s="164"/>
+      <c r="Q102" s="164"/>
+      <c r="R102" s="164"/>
+      <c r="S102" s="164"/>
+      <c r="T102" s="164"/>
+      <c r="U102" s="164"/>
+      <c r="V102" s="165"/>
     </row>
     <row r="103" spans="2:22">
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="113" t="s">
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="113"/>
+      <c r="E103" s="92"/>
       <c r="F103" s="78" t="s">
         <v>105</v>
       </c>
@@ -6861,25 +7283,25 @@
         <v>0</v>
       </c>
       <c r="L103" s="1"/>
-      <c r="N103" s="156"/>
-      <c r="O103" s="157"/>
-      <c r="P103" s="157"/>
-      <c r="Q103" s="157"/>
-      <c r="R103" s="157"/>
-      <c r="S103" s="157"/>
-      <c r="T103" s="157"/>
-      <c r="U103" s="157"/>
-      <c r="V103" s="158"/>
+      <c r="N103" s="163"/>
+      <c r="O103" s="164"/>
+      <c r="P103" s="164"/>
+      <c r="Q103" s="164"/>
+      <c r="R103" s="164"/>
+      <c r="S103" s="164"/>
+      <c r="T103" s="164"/>
+      <c r="U103" s="164"/>
+      <c r="V103" s="165"/>
     </row>
     <row r="104" spans="2:22">
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="80" t="s">
+      <c r="B104" s="83"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="81"/>
+      <c r="G104" s="114"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
       <c r="J104" s="33"/>
@@ -6888,21 +7310,21 @@
         <v>0</v>
       </c>
       <c r="L104" s="33"/>
-      <c r="N104" s="156"/>
-      <c r="O104" s="157"/>
-      <c r="P104" s="157"/>
-      <c r="Q104" s="157"/>
-      <c r="R104" s="157"/>
-      <c r="S104" s="157"/>
-      <c r="T104" s="157"/>
-      <c r="U104" s="157"/>
-      <c r="V104" s="158"/>
+      <c r="N104" s="163"/>
+      <c r="O104" s="164"/>
+      <c r="P104" s="164"/>
+      <c r="Q104" s="164"/>
+      <c r="R104" s="164"/>
+      <c r="S104" s="164"/>
+      <c r="T104" s="164"/>
+      <c r="U104" s="164"/>
+      <c r="V104" s="165"/>
     </row>
     <row r="105" spans="2:22">
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="114"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="78" t="s">
         <v>107</v>
       </c>
@@ -6915,25 +7337,25 @@
         <v>0</v>
       </c>
       <c r="L105" s="1"/>
-      <c r="N105" s="156"/>
-      <c r="O105" s="157"/>
-      <c r="P105" s="157"/>
-      <c r="Q105" s="157"/>
-      <c r="R105" s="157"/>
-      <c r="S105" s="157"/>
-      <c r="T105" s="157"/>
-      <c r="U105" s="157"/>
-      <c r="V105" s="158"/>
+      <c r="N105" s="163"/>
+      <c r="O105" s="164"/>
+      <c r="P105" s="164"/>
+      <c r="Q105" s="164"/>
+      <c r="R105" s="164"/>
+      <c r="S105" s="164"/>
+      <c r="T105" s="164"/>
+      <c r="U105" s="164"/>
+      <c r="V105" s="165"/>
     </row>
     <row r="106" spans="2:22">
-      <c r="B106" s="99"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="80" t="s">
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="G106" s="81"/>
+      <c r="G106" s="114"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
@@ -6942,21 +7364,21 @@
         <v>0</v>
       </c>
       <c r="L106" s="33"/>
-      <c r="N106" s="156"/>
-      <c r="O106" s="157"/>
-      <c r="P106" s="157"/>
-      <c r="Q106" s="157"/>
-      <c r="R106" s="157"/>
-      <c r="S106" s="157"/>
-      <c r="T106" s="157"/>
-      <c r="U106" s="157"/>
-      <c r="V106" s="158"/>
+      <c r="N106" s="163"/>
+      <c r="O106" s="164"/>
+      <c r="P106" s="164"/>
+      <c r="Q106" s="164"/>
+      <c r="R106" s="164"/>
+      <c r="S106" s="164"/>
+      <c r="T106" s="164"/>
+      <c r="U106" s="164"/>
+      <c r="V106" s="165"/>
     </row>
     <row r="107" spans="2:22">
-      <c r="B107" s="99"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="78" t="s">
         <v>109</v>
       </c>
@@ -6969,25 +7391,25 @@
         <v>0</v>
       </c>
       <c r="L107" s="1"/>
-      <c r="N107" s="156"/>
-      <c r="O107" s="157"/>
-      <c r="P107" s="157"/>
-      <c r="Q107" s="157"/>
-      <c r="R107" s="157"/>
-      <c r="S107" s="157"/>
-      <c r="T107" s="157"/>
-      <c r="U107" s="157"/>
-      <c r="V107" s="158"/>
+      <c r="N107" s="163"/>
+      <c r="O107" s="164"/>
+      <c r="P107" s="164"/>
+      <c r="Q107" s="164"/>
+      <c r="R107" s="164"/>
+      <c r="S107" s="164"/>
+      <c r="T107" s="164"/>
+      <c r="U107" s="164"/>
+      <c r="V107" s="165"/>
     </row>
     <row r="108" spans="2:22">
-      <c r="B108" s="99"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="80" t="s">
+      <c r="B108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="G108" s="81"/>
+      <c r="G108" s="114"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
@@ -6996,21 +7418,21 @@
         <v>0</v>
       </c>
       <c r="L108" s="33"/>
-      <c r="N108" s="159"/>
-      <c r="O108" s="160"/>
-      <c r="P108" s="160"/>
-      <c r="Q108" s="160"/>
-      <c r="R108" s="160"/>
-      <c r="S108" s="160"/>
-      <c r="T108" s="160"/>
-      <c r="U108" s="160"/>
-      <c r="V108" s="161"/>
+      <c r="N108" s="166"/>
+      <c r="O108" s="167"/>
+      <c r="P108" s="167"/>
+      <c r="Q108" s="167"/>
+      <c r="R108" s="167"/>
+      <c r="S108" s="167"/>
+      <c r="T108" s="167"/>
+      <c r="U108" s="167"/>
+      <c r="V108" s="168"/>
     </row>
     <row r="109" spans="2:22">
-      <c r="B109" s="99"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="114"/>
-      <c r="E109" s="114"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="93"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="78" t="s">
         <v>111</v>
       </c>
@@ -7025,14 +7447,14 @@
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="2:22">
-      <c r="B110" s="99"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="114"/>
-      <c r="E110" s="114"/>
-      <c r="F110" s="80" t="s">
+      <c r="B110" s="83"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G110" s="81"/>
+      <c r="G110" s="114"/>
       <c r="H110" s="33"/>
       <c r="I110" s="33"/>
       <c r="J110" s="33"/>
@@ -7041,23 +7463,23 @@
         <v>0</v>
       </c>
       <c r="L110" s="33"/>
-      <c r="N110" s="139" t="s">
-        <v>195</v>
-      </c>
-      <c r="O110" s="140"/>
-      <c r="P110" s="140"/>
-      <c r="Q110" s="140"/>
-      <c r="R110" s="140"/>
-      <c r="S110" s="140"/>
-      <c r="T110" s="140"/>
-      <c r="U110" s="140"/>
-      <c r="V110" s="141"/>
+      <c r="N110" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="O110" s="147"/>
+      <c r="P110" s="147"/>
+      <c r="Q110" s="147"/>
+      <c r="R110" s="147"/>
+      <c r="S110" s="147"/>
+      <c r="T110" s="147"/>
+      <c r="U110" s="147"/>
+      <c r="V110" s="148"/>
     </row>
     <row r="111" spans="2:22">
-      <c r="B111" s="99"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="78" t="s">
         <v>113</v>
       </c>
@@ -7071,32 +7493,32 @@
       </c>
       <c r="L111" s="1"/>
       <c r="N111" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q111" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="R111" s="104"/>
-      <c r="S111" s="104"/>
-      <c r="T111" s="104"/>
-      <c r="U111" s="104"/>
-      <c r="V111" s="104"/>
+        <v>345</v>
+      </c>
+      <c r="Q111" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="R111" s="101"/>
+      <c r="S111" s="101"/>
+      <c r="T111" s="101"/>
+      <c r="U111" s="101"/>
+      <c r="V111" s="101"/>
     </row>
     <row r="112" spans="2:22">
-      <c r="B112" s="99"/>
-      <c r="C112" s="99"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="92" t="s">
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="G112" s="93"/>
+      <c r="G112" s="116"/>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
       <c r="J112" s="33"/>
@@ -7108,22 +7530,22 @@
       <c r="N112" s="6"/>
       <c r="O112" s="46"/>
       <c r="P112" s="46"/>
-      <c r="Q112" s="133"/>
-      <c r="R112" s="134"/>
-      <c r="S112" s="134"/>
-      <c r="T112" s="134"/>
-      <c r="U112" s="134"/>
-      <c r="V112" s="135"/>
+      <c r="Q112" s="140"/>
+      <c r="R112" s="141"/>
+      <c r="S112" s="141"/>
+      <c r="T112" s="141"/>
+      <c r="U112" s="141"/>
+      <c r="V112" s="142"/>
     </row>
     <row r="113" spans="2:22">
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="114"/>
-      <c r="F113" s="119" t="s">
+      <c r="B113" s="83"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="G113" s="120"/>
+      <c r="G113" s="125"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -7135,22 +7557,22 @@
       <c r="N113" s="5"/>
       <c r="O113" s="45"/>
       <c r="P113" s="45"/>
-      <c r="Q113" s="136"/>
-      <c r="R113" s="137"/>
-      <c r="S113" s="137"/>
-      <c r="T113" s="137"/>
-      <c r="U113" s="137"/>
-      <c r="V113" s="138"/>
+      <c r="Q113" s="143"/>
+      <c r="R113" s="144"/>
+      <c r="S113" s="144"/>
+      <c r="T113" s="144"/>
+      <c r="U113" s="144"/>
+      <c r="V113" s="145"/>
     </row>
     <row r="114" spans="2:22">
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="114"/>
-      <c r="E114" s="114"/>
-      <c r="F114" s="92" t="s">
+      <c r="B114" s="83"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="G114" s="93"/>
+      <c r="G114" s="116"/>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
@@ -7162,22 +7584,22 @@
       <c r="N114" s="6"/>
       <c r="O114" s="46"/>
       <c r="P114" s="46"/>
-      <c r="Q114" s="133"/>
-      <c r="R114" s="134"/>
-      <c r="S114" s="134"/>
-      <c r="T114" s="134"/>
-      <c r="U114" s="134"/>
-      <c r="V114" s="135"/>
+      <c r="Q114" s="140"/>
+      <c r="R114" s="141"/>
+      <c r="S114" s="141"/>
+      <c r="T114" s="141"/>
+      <c r="U114" s="141"/>
+      <c r="V114" s="142"/>
     </row>
     <row r="115" spans="2:22">
-      <c r="B115" s="99"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="114"/>
-      <c r="E115" s="114"/>
-      <c r="F115" s="119" t="s">
+      <c r="B115" s="83"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="G115" s="120"/>
+      <c r="G115" s="125"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -7189,22 +7611,22 @@
       <c r="N115" s="5"/>
       <c r="O115" s="45"/>
       <c r="P115" s="45"/>
-      <c r="Q115" s="136"/>
-      <c r="R115" s="137"/>
-      <c r="S115" s="137"/>
-      <c r="T115" s="137"/>
-      <c r="U115" s="137"/>
-      <c r="V115" s="138"/>
+      <c r="Q115" s="143"/>
+      <c r="R115" s="144"/>
+      <c r="S115" s="144"/>
+      <c r="T115" s="144"/>
+      <c r="U115" s="144"/>
+      <c r="V115" s="145"/>
     </row>
     <row r="116" spans="2:22">
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="114"/>
-      <c r="F116" s="92" t="s">
+      <c r="B116" s="83"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="93"/>
+      <c r="E116" s="93"/>
+      <c r="F116" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G116" s="93"/>
+      <c r="G116" s="116"/>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
       <c r="J116" s="33"/>
@@ -7216,22 +7638,22 @@
       <c r="N116" s="6"/>
       <c r="O116" s="46"/>
       <c r="P116" s="46"/>
-      <c r="Q116" s="133"/>
-      <c r="R116" s="134"/>
-      <c r="S116" s="134"/>
-      <c r="T116" s="134"/>
-      <c r="U116" s="134"/>
-      <c r="V116" s="135"/>
+      <c r="Q116" s="140"/>
+      <c r="R116" s="141"/>
+      <c r="S116" s="141"/>
+      <c r="T116" s="141"/>
+      <c r="U116" s="141"/>
+      <c r="V116" s="142"/>
     </row>
     <row r="117" spans="2:22">
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="114"/>
-      <c r="F117" s="119" t="s">
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="93"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="G117" s="120"/>
+      <c r="G117" s="125"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -7243,22 +7665,22 @@
       <c r="N117" s="5"/>
       <c r="O117" s="45"/>
       <c r="P117" s="45"/>
-      <c r="Q117" s="136"/>
-      <c r="R117" s="137"/>
-      <c r="S117" s="137"/>
-      <c r="T117" s="137"/>
-      <c r="U117" s="137"/>
-      <c r="V117" s="138"/>
+      <c r="Q117" s="143"/>
+      <c r="R117" s="144"/>
+      <c r="S117" s="144"/>
+      <c r="T117" s="144"/>
+      <c r="U117" s="144"/>
+      <c r="V117" s="145"/>
     </row>
     <row r="118" spans="2:22">
-      <c r="B118" s="99"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="114"/>
-      <c r="E118" s="114"/>
-      <c r="F118" s="92" t="s">
+      <c r="B118" s="83"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="93"/>
+      <c r="E118" s="93"/>
+      <c r="F118" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="G118" s="93"/>
+      <c r="G118" s="116"/>
       <c r="H118" s="33"/>
       <c r="I118" s="33"/>
       <c r="J118" s="33"/>
@@ -7270,22 +7692,22 @@
       <c r="N118" s="6"/>
       <c r="O118" s="46"/>
       <c r="P118" s="46"/>
-      <c r="Q118" s="133"/>
-      <c r="R118" s="134"/>
-      <c r="S118" s="134"/>
-      <c r="T118" s="134"/>
-      <c r="U118" s="134"/>
-      <c r="V118" s="135"/>
+      <c r="Q118" s="140"/>
+      <c r="R118" s="141"/>
+      <c r="S118" s="141"/>
+      <c r="T118" s="141"/>
+      <c r="U118" s="141"/>
+      <c r="V118" s="142"/>
     </row>
     <row r="119" spans="2:22">
-      <c r="B119" s="99"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="114"/>
-      <c r="E119" s="114"/>
-      <c r="F119" s="119" t="s">
+      <c r="B119" s="83"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="G119" s="120"/>
+      <c r="G119" s="125"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -7297,22 +7719,22 @@
       <c r="N119" s="5"/>
       <c r="O119" s="45"/>
       <c r="P119" s="45"/>
-      <c r="Q119" s="136"/>
-      <c r="R119" s="137"/>
-      <c r="S119" s="137"/>
-      <c r="T119" s="137"/>
-      <c r="U119" s="137"/>
-      <c r="V119" s="138"/>
+      <c r="Q119" s="143"/>
+      <c r="R119" s="144"/>
+      <c r="S119" s="144"/>
+      <c r="T119" s="144"/>
+      <c r="U119" s="144"/>
+      <c r="V119" s="145"/>
     </row>
     <row r="120" spans="2:22">
-      <c r="B120" s="99"/>
-      <c r="C120" s="99"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="92" t="s">
+      <c r="B120" s="83"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="93"/>
+      <c r="E120" s="93"/>
+      <c r="F120" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="G120" s="93"/>
+      <c r="G120" s="116"/>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
       <c r="J120" s="33"/>
@@ -7324,22 +7746,22 @@
       <c r="N120" s="6"/>
       <c r="O120" s="46"/>
       <c r="P120" s="46"/>
-      <c r="Q120" s="133"/>
-      <c r="R120" s="134"/>
-      <c r="S120" s="134"/>
-      <c r="T120" s="134"/>
-      <c r="U120" s="134"/>
-      <c r="V120" s="135"/>
+      <c r="Q120" s="140"/>
+      <c r="R120" s="141"/>
+      <c r="S120" s="141"/>
+      <c r="T120" s="141"/>
+      <c r="U120" s="141"/>
+      <c r="V120" s="142"/>
     </row>
     <row r="121" spans="2:22">
-      <c r="B121" s="99"/>
-      <c r="C121" s="99"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="119" t="s">
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="93"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="G121" s="120"/>
+      <c r="G121" s="125"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -7351,22 +7773,22 @@
       <c r="N121" s="5"/>
       <c r="O121" s="45"/>
       <c r="P121" s="45"/>
-      <c r="Q121" s="136"/>
-      <c r="R121" s="137"/>
-      <c r="S121" s="137"/>
-      <c r="T121" s="137"/>
-      <c r="U121" s="137"/>
-      <c r="V121" s="138"/>
+      <c r="Q121" s="143"/>
+      <c r="R121" s="144"/>
+      <c r="S121" s="144"/>
+      <c r="T121" s="144"/>
+      <c r="U121" s="144"/>
+      <c r="V121" s="145"/>
     </row>
     <row r="122" spans="2:22">
-      <c r="B122" s="99"/>
-      <c r="C122" s="99"/>
-      <c r="D122" s="114"/>
-      <c r="E122" s="114"/>
-      <c r="F122" s="92" t="s">
+      <c r="B122" s="83"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="93"/>
+      <c r="E122" s="93"/>
+      <c r="F122" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="G122" s="93"/>
+      <c r="G122" s="116"/>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
       <c r="J122" s="33"/>
@@ -7378,22 +7800,22 @@
       <c r="N122" s="6"/>
       <c r="O122" s="46"/>
       <c r="P122" s="46"/>
-      <c r="Q122" s="133"/>
-      <c r="R122" s="134"/>
-      <c r="S122" s="134"/>
-      <c r="T122" s="134"/>
-      <c r="U122" s="134"/>
-      <c r="V122" s="135"/>
+      <c r="Q122" s="140"/>
+      <c r="R122" s="141"/>
+      <c r="S122" s="141"/>
+      <c r="T122" s="141"/>
+      <c r="U122" s="141"/>
+      <c r="V122" s="142"/>
     </row>
     <row r="123" spans="2:22">
-      <c r="B123" s="99"/>
-      <c r="C123" s="99"/>
-      <c r="D123" s="114"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="119" t="s">
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="93"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="G123" s="120"/>
+      <c r="G123" s="125"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -7405,22 +7827,22 @@
       <c r="N123" s="5"/>
       <c r="O123" s="45"/>
       <c r="P123" s="45"/>
-      <c r="Q123" s="136"/>
-      <c r="R123" s="137"/>
-      <c r="S123" s="137"/>
-      <c r="T123" s="137"/>
-      <c r="U123" s="137"/>
-      <c r="V123" s="138"/>
+      <c r="Q123" s="143"/>
+      <c r="R123" s="144"/>
+      <c r="S123" s="144"/>
+      <c r="T123" s="144"/>
+      <c r="U123" s="144"/>
+      <c r="V123" s="145"/>
     </row>
     <row r="124" spans="2:22">
-      <c r="B124" s="99"/>
-      <c r="C124" s="99"/>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="92" t="s">
+      <c r="B124" s="83"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="G124" s="93"/>
+      <c r="G124" s="116"/>
       <c r="H124" s="33"/>
       <c r="I124" s="33"/>
       <c r="J124" s="33"/>
@@ -7432,22 +7854,22 @@
       <c r="N124" s="6"/>
       <c r="O124" s="46"/>
       <c r="P124" s="46"/>
-      <c r="Q124" s="133"/>
-      <c r="R124" s="134"/>
-      <c r="S124" s="134"/>
-      <c r="T124" s="134"/>
-      <c r="U124" s="134"/>
-      <c r="V124" s="135"/>
+      <c r="Q124" s="140"/>
+      <c r="R124" s="141"/>
+      <c r="S124" s="141"/>
+      <c r="T124" s="141"/>
+      <c r="U124" s="141"/>
+      <c r="V124" s="142"/>
     </row>
     <row r="125" spans="2:22">
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="114"/>
-      <c r="E125" s="114"/>
-      <c r="F125" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="G125" s="87"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="93"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="105" t="s">
+        <v>335</v>
+      </c>
+      <c r="G125" s="106"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7459,22 +7881,22 @@
       <c r="N125" s="5"/>
       <c r="O125" s="45"/>
       <c r="P125" s="45"/>
-      <c r="Q125" s="136"/>
-      <c r="R125" s="137"/>
-      <c r="S125" s="137"/>
-      <c r="T125" s="137"/>
-      <c r="U125" s="137"/>
-      <c r="V125" s="138"/>
+      <c r="Q125" s="143"/>
+      <c r="R125" s="144"/>
+      <c r="S125" s="144"/>
+      <c r="T125" s="144"/>
+      <c r="U125" s="144"/>
+      <c r="V125" s="145"/>
     </row>
     <row r="126" spans="2:22">
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="114"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="176" t="s">
-        <v>348</v>
-      </c>
-      <c r="G126" s="177"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="93"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="G126" s="184"/>
       <c r="H126" s="33"/>
       <c r="I126" s="33"/>
       <c r="J126" s="33"/>
@@ -7486,22 +7908,22 @@
       <c r="N126" s="6"/>
       <c r="O126" s="46"/>
       <c r="P126" s="46"/>
-      <c r="Q126" s="133"/>
-      <c r="R126" s="134"/>
-      <c r="S126" s="134"/>
-      <c r="T126" s="134"/>
-      <c r="U126" s="134"/>
-      <c r="V126" s="135"/>
+      <c r="Q126" s="140"/>
+      <c r="R126" s="141"/>
+      <c r="S126" s="141"/>
+      <c r="T126" s="141"/>
+      <c r="U126" s="141"/>
+      <c r="V126" s="142"/>
     </row>
     <row r="127" spans="2:22">
-      <c r="B127" s="99"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="G127" s="87"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="G127" s="106"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -7513,22 +7935,22 @@
       <c r="N127" s="5"/>
       <c r="O127" s="45"/>
       <c r="P127" s="45"/>
-      <c r="Q127" s="136"/>
-      <c r="R127" s="137"/>
-      <c r="S127" s="137"/>
-      <c r="T127" s="137"/>
-      <c r="U127" s="137"/>
-      <c r="V127" s="138"/>
+      <c r="Q127" s="143"/>
+      <c r="R127" s="144"/>
+      <c r="S127" s="144"/>
+      <c r="T127" s="144"/>
+      <c r="U127" s="144"/>
+      <c r="V127" s="145"/>
     </row>
     <row r="128" spans="2:22">
-      <c r="B128" s="100"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="115"/>
-      <c r="E128" s="115"/>
-      <c r="F128" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="G128" s="85"/>
+      <c r="B128" s="84"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="G128" s="104"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -7540,26 +7962,26 @@
       <c r="N128" s="6"/>
       <c r="O128" s="46"/>
       <c r="P128" s="46"/>
-      <c r="Q128" s="133"/>
-      <c r="R128" s="134"/>
-      <c r="S128" s="134"/>
-      <c r="T128" s="134"/>
-      <c r="U128" s="134"/>
-      <c r="V128" s="135"/>
+      <c r="Q128" s="140"/>
+      <c r="R128" s="141"/>
+      <c r="S128" s="141"/>
+      <c r="T128" s="141"/>
+      <c r="U128" s="141"/>
+      <c r="V128" s="142"/>
     </row>
     <row r="129" spans="2:22">
-      <c r="B129" s="108" t="s">
+      <c r="B129" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="108"/>
+      <c r="C129" s="85"/>
       <c r="D129" s="37" t="s">
         <v>128</v>
       </c>
       <c r="E129" s="37"/>
-      <c r="F129" s="90" t="s">
+      <c r="F129" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="G129" s="91"/>
+      <c r="G129" s="112"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -7571,24 +7993,24 @@
       <c r="N129" s="5"/>
       <c r="O129" s="45"/>
       <c r="P129" s="45"/>
-      <c r="Q129" s="136"/>
-      <c r="R129" s="137"/>
-      <c r="S129" s="137"/>
-      <c r="T129" s="137"/>
-      <c r="U129" s="137"/>
-      <c r="V129" s="138"/>
+      <c r="Q129" s="143"/>
+      <c r="R129" s="144"/>
+      <c r="S129" s="144"/>
+      <c r="T129" s="144"/>
+      <c r="U129" s="144"/>
+      <c r="V129" s="145"/>
     </row>
     <row r="130" spans="2:22">
-      <c r="B130" s="109"/>
-      <c r="C130" s="109"/>
-      <c r="D130" s="113" t="s">
+      <c r="B130" s="86"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="E130" s="113"/>
-      <c r="F130" s="84" t="s">
+      <c r="E130" s="92"/>
+      <c r="F130" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G130" s="85"/>
+      <c r="G130" s="104"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -7600,22 +8022,22 @@
       <c r="N130" s="6"/>
       <c r="O130" s="46"/>
       <c r="P130" s="46"/>
-      <c r="Q130" s="133"/>
-      <c r="R130" s="134"/>
-      <c r="S130" s="134"/>
-      <c r="T130" s="134"/>
-      <c r="U130" s="134"/>
-      <c r="V130" s="135"/>
+      <c r="Q130" s="140"/>
+      <c r="R130" s="141"/>
+      <c r="S130" s="141"/>
+      <c r="T130" s="141"/>
+      <c r="U130" s="141"/>
+      <c r="V130" s="142"/>
     </row>
     <row r="131" spans="2:22">
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="114"/>
-      <c r="F131" s="82" t="s">
+      <c r="B131" s="86"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="93"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="G131" s="83"/>
+      <c r="G131" s="127"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -7627,22 +8049,22 @@
       <c r="N131" s="5"/>
       <c r="O131" s="45"/>
       <c r="P131" s="45"/>
-      <c r="Q131" s="136"/>
-      <c r="R131" s="137"/>
-      <c r="S131" s="137"/>
-      <c r="T131" s="137"/>
-      <c r="U131" s="137"/>
-      <c r="V131" s="138"/>
+      <c r="Q131" s="143"/>
+      <c r="R131" s="144"/>
+      <c r="S131" s="144"/>
+      <c r="T131" s="144"/>
+      <c r="U131" s="144"/>
+      <c r="V131" s="145"/>
     </row>
     <row r="132" spans="2:22">
-      <c r="B132" s="109"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="114"/>
-      <c r="F132" s="84" t="s">
+      <c r="B132" s="86"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="G132" s="85"/>
+      <c r="G132" s="104"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -7654,22 +8076,22 @@
       <c r="N132" s="6"/>
       <c r="O132" s="46"/>
       <c r="P132" s="46"/>
-      <c r="Q132" s="133"/>
-      <c r="R132" s="134"/>
-      <c r="S132" s="134"/>
-      <c r="T132" s="134"/>
-      <c r="U132" s="134"/>
-      <c r="V132" s="135"/>
+      <c r="Q132" s="140"/>
+      <c r="R132" s="141"/>
+      <c r="S132" s="141"/>
+      <c r="T132" s="141"/>
+      <c r="U132" s="141"/>
+      <c r="V132" s="142"/>
     </row>
     <row r="133" spans="2:22">
-      <c r="B133" s="109"/>
-      <c r="C133" s="109"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="114"/>
-      <c r="F133" s="82" t="s">
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="83"/>
+      <c r="G133" s="127"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -7681,22 +8103,22 @@
       <c r="N133" s="5"/>
       <c r="O133" s="45"/>
       <c r="P133" s="45"/>
-      <c r="Q133" s="136"/>
-      <c r="R133" s="137"/>
-      <c r="S133" s="137"/>
-      <c r="T133" s="137"/>
-      <c r="U133" s="137"/>
-      <c r="V133" s="138"/>
+      <c r="Q133" s="143"/>
+      <c r="R133" s="144"/>
+      <c r="S133" s="144"/>
+      <c r="T133" s="144"/>
+      <c r="U133" s="144"/>
+      <c r="V133" s="145"/>
     </row>
     <row r="134" spans="2:22">
-      <c r="B134" s="109"/>
-      <c r="C134" s="109"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="114"/>
-      <c r="F134" s="84" t="s">
+      <c r="B134" s="86"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="G134" s="85"/>
+      <c r="G134" s="104"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -7708,22 +8130,22 @@
       <c r="N134" s="6"/>
       <c r="O134" s="46"/>
       <c r="P134" s="46"/>
-      <c r="Q134" s="133"/>
-      <c r="R134" s="134"/>
-      <c r="S134" s="134"/>
-      <c r="T134" s="134"/>
-      <c r="U134" s="134"/>
-      <c r="V134" s="135"/>
+      <c r="Q134" s="140"/>
+      <c r="R134" s="141"/>
+      <c r="S134" s="141"/>
+      <c r="T134" s="141"/>
+      <c r="U134" s="141"/>
+      <c r="V134" s="142"/>
     </row>
     <row r="135" spans="2:22">
-      <c r="B135" s="109"/>
-      <c r="C135" s="109"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="114"/>
-      <c r="F135" s="192" t="s">
-        <v>363</v>
-      </c>
-      <c r="G135" s="193"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="93"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="205" t="s">
+        <v>351</v>
+      </c>
+      <c r="G135" s="206"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -7735,22 +8157,22 @@
       <c r="N135" s="5"/>
       <c r="O135" s="45"/>
       <c r="P135" s="45"/>
-      <c r="Q135" s="136"/>
-      <c r="R135" s="137"/>
-      <c r="S135" s="137"/>
-      <c r="T135" s="137"/>
-      <c r="U135" s="137"/>
-      <c r="V135" s="138"/>
+      <c r="Q135" s="143"/>
+      <c r="R135" s="144"/>
+      <c r="S135" s="144"/>
+      <c r="T135" s="144"/>
+      <c r="U135" s="144"/>
+      <c r="V135" s="145"/>
     </row>
     <row r="136" spans="2:22">
-      <c r="B136" s="109"/>
-      <c r="C136" s="109"/>
-      <c r="D136" s="115"/>
-      <c r="E136" s="115"/>
-      <c r="F136" s="80" t="s">
+      <c r="B136" s="86"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="94"/>
+      <c r="F136" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="G136" s="81"/>
+      <c r="G136" s="114"/>
       <c r="H136" s="33"/>
       <c r="I136" s="33"/>
       <c r="J136" s="33"/>
@@ -7762,16 +8184,16 @@
       <c r="N136" s="6"/>
       <c r="O136" s="46"/>
       <c r="P136" s="46"/>
-      <c r="Q136" s="133"/>
-      <c r="R136" s="134"/>
-      <c r="S136" s="134"/>
-      <c r="T136" s="134"/>
-      <c r="U136" s="134"/>
-      <c r="V136" s="135"/>
+      <c r="Q136" s="140"/>
+      <c r="R136" s="141"/>
+      <c r="S136" s="141"/>
+      <c r="T136" s="141"/>
+      <c r="U136" s="141"/>
+      <c r="V136" s="142"/>
     </row>
     <row r="137" spans="2:22">
-      <c r="B137" s="109"/>
-      <c r="C137" s="109"/>
+      <c r="B137" s="86"/>
+      <c r="C137" s="86"/>
       <c r="D137" s="22" t="s">
         <v>135</v>
       </c>
@@ -7791,24 +8213,24 @@
       <c r="N137" s="5"/>
       <c r="O137" s="45"/>
       <c r="P137" s="45"/>
-      <c r="Q137" s="136"/>
-      <c r="R137" s="137"/>
-      <c r="S137" s="137"/>
-      <c r="T137" s="137"/>
-      <c r="U137" s="137"/>
-      <c r="V137" s="138"/>
+      <c r="Q137" s="143"/>
+      <c r="R137" s="144"/>
+      <c r="S137" s="144"/>
+      <c r="T137" s="144"/>
+      <c r="U137" s="144"/>
+      <c r="V137" s="145"/>
     </row>
     <row r="138" spans="2:22">
-      <c r="B138" s="109"/>
-      <c r="C138" s="109"/>
+      <c r="B138" s="86"/>
+      <c r="C138" s="86"/>
       <c r="D138" s="31" t="s">
         <v>136</v>
       </c>
       <c r="E138" s="23"/>
-      <c r="F138" s="80" t="s">
+      <c r="F138" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="G138" s="81"/>
+      <c r="G138" s="114"/>
       <c r="H138" s="33"/>
       <c r="I138" s="33"/>
       <c r="J138" s="33"/>
@@ -7820,20 +8242,20 @@
       <c r="N138" s="6"/>
       <c r="O138" s="46"/>
       <c r="P138" s="46"/>
-      <c r="Q138" s="133"/>
-      <c r="R138" s="134"/>
-      <c r="S138" s="134"/>
-      <c r="T138" s="134"/>
-      <c r="U138" s="134"/>
-      <c r="V138" s="135"/>
+      <c r="Q138" s="140"/>
+      <c r="R138" s="141"/>
+      <c r="S138" s="141"/>
+      <c r="T138" s="141"/>
+      <c r="U138" s="141"/>
+      <c r="V138" s="142"/>
     </row>
     <row r="139" spans="2:22">
-      <c r="B139" s="109"/>
-      <c r="C139" s="109"/>
-      <c r="D139" s="162" t="s">
+      <c r="B139" s="86"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="E139" s="105"/>
+      <c r="E139" s="90"/>
       <c r="F139" s="78" t="s">
         <v>139</v>
       </c>
@@ -7849,22 +8271,22 @@
       <c r="N139" s="5"/>
       <c r="O139" s="45"/>
       <c r="P139" s="45"/>
-      <c r="Q139" s="136"/>
-      <c r="R139" s="137"/>
-      <c r="S139" s="137"/>
-      <c r="T139" s="137"/>
-      <c r="U139" s="137"/>
-      <c r="V139" s="138"/>
+      <c r="Q139" s="143"/>
+      <c r="R139" s="144"/>
+      <c r="S139" s="144"/>
+      <c r="T139" s="144"/>
+      <c r="U139" s="144"/>
+      <c r="V139" s="145"/>
     </row>
     <row r="140" spans="2:22">
-      <c r="B140" s="109"/>
-      <c r="C140" s="109"/>
-      <c r="D140" s="163"/>
-      <c r="E140" s="107"/>
-      <c r="F140" s="80" t="s">
+      <c r="B140" s="86"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="170"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="G140" s="81"/>
+      <c r="G140" s="114"/>
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
       <c r="J140" s="33"/>
@@ -7876,16 +8298,16 @@
       <c r="N140" s="6"/>
       <c r="O140" s="46"/>
       <c r="P140" s="46"/>
-      <c r="Q140" s="133"/>
-      <c r="R140" s="134"/>
-      <c r="S140" s="134"/>
-      <c r="T140" s="134"/>
-      <c r="U140" s="134"/>
-      <c r="V140" s="135"/>
+      <c r="Q140" s="140"/>
+      <c r="R140" s="141"/>
+      <c r="S140" s="141"/>
+      <c r="T140" s="141"/>
+      <c r="U140" s="141"/>
+      <c r="V140" s="142"/>
     </row>
     <row r="141" spans="2:22">
-      <c r="B141" s="109"/>
-      <c r="C141" s="109"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="86"/>
       <c r="D141" s="19" t="s">
         <v>143</v>
       </c>
@@ -7905,24 +8327,24 @@
       <c r="N141" s="5"/>
       <c r="O141" s="45"/>
       <c r="P141" s="45"/>
-      <c r="Q141" s="136"/>
-      <c r="R141" s="137"/>
-      <c r="S141" s="137"/>
-      <c r="T141" s="137"/>
-      <c r="U141" s="137"/>
-      <c r="V141" s="138"/>
+      <c r="Q141" s="143"/>
+      <c r="R141" s="144"/>
+      <c r="S141" s="144"/>
+      <c r="T141" s="144"/>
+      <c r="U141" s="144"/>
+      <c r="V141" s="145"/>
     </row>
     <row r="142" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="164" t="s">
+      <c r="B142" s="86"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="E142" s="167"/>
-      <c r="F142" s="148" t="s">
+      <c r="E142" s="174"/>
+      <c r="F142" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="149"/>
+      <c r="G142" s="156"/>
       <c r="H142" s="33"/>
       <c r="I142" s="33"/>
       <c r="J142" s="33"/>
@@ -7934,23 +8356,23 @@
       <c r="N142" s="6"/>
       <c r="O142" s="46"/>
       <c r="P142" s="46"/>
-      <c r="Q142" s="133"/>
-      <c r="R142" s="134"/>
-      <c r="S142" s="134"/>
-      <c r="T142" s="134"/>
-      <c r="U142" s="134"/>
-      <c r="V142" s="135"/>
+      <c r="Q142" s="140"/>
+      <c r="R142" s="141"/>
+      <c r="S142" s="141"/>
+      <c r="T142" s="141"/>
+      <c r="U142" s="141"/>
+      <c r="V142" s="142"/>
     </row>
     <row r="143" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B143" s="109"/>
-      <c r="C143" s="109"/>
-      <c r="D143" s="165"/>
-      <c r="E143" s="168"/>
+      <c r="B143" s="86"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="172"/>
+      <c r="E143" s="175"/>
       <c r="F143" s="32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7963,23 +8385,23 @@
       <c r="N143" s="5"/>
       <c r="O143" s="45"/>
       <c r="P143" s="45"/>
-      <c r="Q143" s="136"/>
-      <c r="R143" s="137"/>
-      <c r="S143" s="137"/>
-      <c r="T143" s="137"/>
-      <c r="U143" s="137"/>
-      <c r="V143" s="138"/>
+      <c r="Q143" s="143"/>
+      <c r="R143" s="144"/>
+      <c r="S143" s="144"/>
+      <c r="T143" s="144"/>
+      <c r="U143" s="144"/>
+      <c r="V143" s="145"/>
     </row>
     <row r="144" spans="2:22">
-      <c r="B144" s="109"/>
-      <c r="C144" s="109"/>
-      <c r="D144" s="165"/>
-      <c r="E144" s="168"/>
+      <c r="B144" s="86"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="172"/>
+      <c r="E144" s="175"/>
       <c r="F144" s="34" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G144" s="35" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H144" s="33"/>
       <c r="I144" s="33"/>
@@ -7992,23 +8414,23 @@
       <c r="N144" s="6"/>
       <c r="O144" s="46"/>
       <c r="P144" s="46"/>
-      <c r="Q144" s="133"/>
-      <c r="R144" s="134"/>
-      <c r="S144" s="134"/>
-      <c r="T144" s="134"/>
-      <c r="U144" s="134"/>
-      <c r="V144" s="135"/>
+      <c r="Q144" s="140"/>
+      <c r="R144" s="141"/>
+      <c r="S144" s="141"/>
+      <c r="T144" s="141"/>
+      <c r="U144" s="141"/>
+      <c r="V144" s="142"/>
     </row>
     <row r="145" spans="2:22">
-      <c r="B145" s="109"/>
-      <c r="C145" s="109"/>
-      <c r="D145" s="165"/>
-      <c r="E145" s="168"/>
+      <c r="B145" s="86"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="172"/>
+      <c r="E145" s="175"/>
       <c r="F145" s="32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -8021,23 +8443,23 @@
       <c r="N145" s="5"/>
       <c r="O145" s="45"/>
       <c r="P145" s="45"/>
-      <c r="Q145" s="136"/>
-      <c r="R145" s="137"/>
-      <c r="S145" s="137"/>
-      <c r="T145" s="137"/>
-      <c r="U145" s="137"/>
-      <c r="V145" s="138"/>
+      <c r="Q145" s="143"/>
+      <c r="R145" s="144"/>
+      <c r="S145" s="144"/>
+      <c r="T145" s="144"/>
+      <c r="U145" s="144"/>
+      <c r="V145" s="145"/>
     </row>
     <row r="146" spans="2:22">
-      <c r="B146" s="109"/>
-      <c r="C146" s="109"/>
-      <c r="D146" s="165"/>
-      <c r="E146" s="168"/>
+      <c r="B146" s="86"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="172"/>
+      <c r="E146" s="175"/>
       <c r="F146" s="34" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G146" s="35" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H146" s="33"/>
       <c r="I146" s="33"/>
@@ -8050,22 +8472,22 @@
       <c r="N146" s="6"/>
       <c r="O146" s="46"/>
       <c r="P146" s="46"/>
-      <c r="Q146" s="133"/>
-      <c r="R146" s="134"/>
-      <c r="S146" s="134"/>
-      <c r="T146" s="134"/>
-      <c r="U146" s="134"/>
-      <c r="V146" s="135"/>
-    </row>
-    <row r="147" spans="2:22" ht="14.5" thickBot="1">
-      <c r="B147" s="110"/>
-      <c r="C147" s="110"/>
-      <c r="D147" s="166"/>
-      <c r="E147" s="169"/>
-      <c r="F147" s="150" t="s">
+      <c r="Q146" s="140"/>
+      <c r="R146" s="141"/>
+      <c r="S146" s="141"/>
+      <c r="T146" s="141"/>
+      <c r="U146" s="141"/>
+      <c r="V146" s="142"/>
+    </row>
+    <row r="147" spans="2:22" ht="15" thickBot="1">
+      <c r="B147" s="87"/>
+      <c r="C147" s="87"/>
+      <c r="D147" s="173"/>
+      <c r="E147" s="176"/>
+      <c r="F147" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="G147" s="151"/>
+      <c r="G147" s="158"/>
       <c r="H147" s="56"/>
       <c r="I147" s="56"/>
       <c r="J147" s="56"/>
@@ -8075,107 +8497,107 @@
       </c>
       <c r="L147" s="56"/>
     </row>
-    <row r="150" spans="2:22" ht="14.5" thickBot="1"/>
+    <row r="150" spans="2:22" ht="15" thickBot="1"/>
     <row r="151" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B151" s="129" t="s">
-        <v>327</v>
-      </c>
-      <c r="C151" s="130"/>
-      <c r="D151" s="130"/>
-      <c r="E151" s="130"/>
-      <c r="F151" s="130"/>
-      <c r="G151" s="130"/>
-      <c r="H151" s="130"/>
-      <c r="I151" s="130"/>
-      <c r="J151" s="130"/>
-      <c r="K151" s="130"/>
-      <c r="L151" s="130"/>
-      <c r="M151" s="130"/>
-      <c r="N151" s="131"/>
-      <c r="O151" s="131"/>
-      <c r="P151" s="131"/>
-      <c r="Q151" s="131"/>
-      <c r="R151" s="131"/>
-      <c r="S151" s="131"/>
-      <c r="T151" s="131"/>
-      <c r="U151" s="131"/>
-      <c r="V151" s="132"/>
+      <c r="B151" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="137"/>
+      <c r="D151" s="137"/>
+      <c r="E151" s="137"/>
+      <c r="F151" s="137"/>
+      <c r="G151" s="137"/>
+      <c r="H151" s="137"/>
+      <c r="I151" s="137"/>
+      <c r="J151" s="137"/>
+      <c r="K151" s="137"/>
+      <c r="L151" s="137"/>
+      <c r="M151" s="137"/>
+      <c r="N151" s="138"/>
+      <c r="O151" s="138"/>
+      <c r="P151" s="138"/>
+      <c r="Q151" s="138"/>
+      <c r="R151" s="138"/>
+      <c r="S151" s="138"/>
+      <c r="T151" s="138"/>
+      <c r="U151" s="138"/>
+      <c r="V151" s="139"/>
     </row>
     <row r="152" spans="2:22" ht="14.25" customHeight="1">
-      <c r="B152" s="170" t="str">
+      <c r="B152" s="177" t="str">
         <f>附表!B12</f>
         <v/>
       </c>
-      <c r="C152" s="171"/>
-      <c r="D152" s="171"/>
-      <c r="E152" s="171"/>
-      <c r="F152" s="171"/>
-      <c r="G152" s="171"/>
-      <c r="H152" s="171"/>
-      <c r="I152" s="171"/>
-      <c r="J152" s="171"/>
-      <c r="K152" s="171"/>
-      <c r="L152" s="171"/>
-      <c r="M152" s="171"/>
-      <c r="N152" s="171"/>
-      <c r="O152" s="171"/>
-      <c r="P152" s="171"/>
-      <c r="Q152" s="171"/>
-      <c r="R152" s="171"/>
-      <c r="S152" s="171"/>
-      <c r="T152" s="171"/>
-      <c r="U152" s="171"/>
-      <c r="V152" s="172"/>
-    </row>
-    <row r="153" spans="2:22" ht="14.15" customHeight="1" thickBot="1">
-      <c r="B153" s="173"/>
-      <c r="C153" s="174"/>
-      <c r="D153" s="174"/>
-      <c r="E153" s="174"/>
-      <c r="F153" s="174"/>
-      <c r="G153" s="174"/>
-      <c r="H153" s="174"/>
-      <c r="I153" s="174"/>
-      <c r="J153" s="174"/>
-      <c r="K153" s="174"/>
-      <c r="L153" s="174"/>
-      <c r="M153" s="174"/>
-      <c r="N153" s="174"/>
-      <c r="O153" s="174"/>
-      <c r="P153" s="174"/>
-      <c r="Q153" s="174"/>
-      <c r="R153" s="174"/>
-      <c r="S153" s="174"/>
-      <c r="T153" s="174"/>
-      <c r="U153" s="174"/>
-      <c r="V153" s="175"/>
-    </row>
-    <row r="154" spans="2:22" ht="14.15" customHeight="1">
-      <c r="P154" s="152" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q154" s="152"/>
-      <c r="R154" s="152"/>
-      <c r="S154" s="152"/>
-      <c r="T154" s="152"/>
-      <c r="U154" s="152"/>
-      <c r="V154" s="152"/>
+      <c r="C152" s="178"/>
+      <c r="D152" s="178"/>
+      <c r="E152" s="178"/>
+      <c r="F152" s="178"/>
+      <c r="G152" s="178"/>
+      <c r="H152" s="178"/>
+      <c r="I152" s="178"/>
+      <c r="J152" s="178"/>
+      <c r="K152" s="178"/>
+      <c r="L152" s="178"/>
+      <c r="M152" s="178"/>
+      <c r="N152" s="178"/>
+      <c r="O152" s="178"/>
+      <c r="P152" s="178"/>
+      <c r="Q152" s="178"/>
+      <c r="R152" s="178"/>
+      <c r="S152" s="178"/>
+      <c r="T152" s="178"/>
+      <c r="U152" s="178"/>
+      <c r="V152" s="179"/>
+    </row>
+    <row r="153" spans="2:22" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B153" s="180"/>
+      <c r="C153" s="181"/>
+      <c r="D153" s="181"/>
+      <c r="E153" s="181"/>
+      <c r="F153" s="181"/>
+      <c r="G153" s="181"/>
+      <c r="H153" s="181"/>
+      <c r="I153" s="181"/>
+      <c r="J153" s="181"/>
+      <c r="K153" s="181"/>
+      <c r="L153" s="181"/>
+      <c r="M153" s="181"/>
+      <c r="N153" s="181"/>
+      <c r="O153" s="181"/>
+      <c r="P153" s="181"/>
+      <c r="Q153" s="181"/>
+      <c r="R153" s="181"/>
+      <c r="S153" s="181"/>
+      <c r="T153" s="181"/>
+      <c r="U153" s="181"/>
+      <c r="V153" s="182"/>
+    </row>
+    <row r="154" spans="2:22" ht="14.1" customHeight="1">
+      <c r="P154" s="159" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q154" s="159"/>
+      <c r="R154" s="159"/>
+      <c r="S154" s="159"/>
+      <c r="T154" s="159"/>
+      <c r="U154" s="159"/>
+      <c r="V154" s="159"/>
     </row>
     <row r="155" spans="2:22" ht="14.25" customHeight="1">
       <c r="B155" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="C155" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="D155" s="94"/>
-      <c r="E155" s="94"/>
-      <c r="F155" s="94"/>
-      <c r="G155" s="94"/>
-      <c r="H155" s="94"/>
-      <c r="I155" s="94"/>
-      <c r="J155" s="94"/>
-      <c r="K155" s="94"/>
+        <v>355</v>
+      </c>
+      <c r="C155" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="D155" s="120"/>
+      <c r="E155" s="120"/>
+      <c r="F155" s="120"/>
+      <c r="G155" s="120"/>
+      <c r="H155" s="120"/>
+      <c r="I155" s="120"/>
+      <c r="J155" s="120"/>
+      <c r="K155" s="120"/>
       <c r="L155" s="52"/>
       <c r="M155" s="52"/>
       <c r="N155" s="52"/>
@@ -8196,25 +8618,25 @@
       <c r="N156" s="52"/>
       <c r="O156" s="49"/>
     </row>
-    <row r="157" spans="2:22" ht="14.15" customHeight="1">
+    <row r="157" spans="2:22" ht="14.1" customHeight="1">
       <c r="B157" s="51"/>
       <c r="C157" s="51"/>
       <c r="D157" s="51"/>
       <c r="E157" s="51"/>
     </row>
-    <row r="158" spans="2:22" ht="14.15" customHeight="1">
+    <row r="158" spans="2:22" ht="14.1" customHeight="1">
       <c r="B158" s="51"/>
       <c r="C158" s="51"/>
       <c r="D158" s="51"/>
       <c r="E158" s="51"/>
     </row>
-    <row r="159" spans="2:22" ht="14.15" customHeight="1">
+    <row r="159" spans="2:22" ht="14.1" customHeight="1">
       <c r="B159" s="51"/>
       <c r="C159" s="51"/>
       <c r="D159" s="51"/>
       <c r="E159" s="51"/>
       <c r="G159" s="53" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H159" s="53"/>
       <c r="I159" s="53"/>
@@ -8225,7 +8647,7 @@
       <c r="N159" s="53"/>
       <c r="O159" s="48"/>
     </row>
-    <row r="160" spans="2:22" ht="14.15" customHeight="1">
+    <row r="160" spans="2:22" ht="14.1" customHeight="1">
       <c r="B160" s="51"/>
       <c r="C160" s="51"/>
       <c r="D160" s="51"/>
@@ -8240,25 +8662,25 @@
       <c r="N160" s="53"/>
       <c r="O160" s="48"/>
     </row>
-    <row r="161" spans="2:14" ht="14.15" customHeight="1">
+    <row r="161" spans="2:14" ht="14.1" customHeight="1">
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="51"/>
       <c r="E161" s="51"/>
     </row>
-    <row r="162" spans="2:14" ht="14.15" customHeight="1">
+    <row r="162" spans="2:14" ht="14.1" customHeight="1">
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="51"/>
       <c r="E162" s="51"/>
     </row>
-    <row r="163" spans="2:14" ht="14.15" customHeight="1">
+    <row r="163" spans="2:14" ht="14.1" customHeight="1">
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="51"/>
       <c r="E163" s="51"/>
       <c r="G163" s="54" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H163" s="54"/>
       <c r="I163" s="54"/>
@@ -8268,7 +8690,7 @@
       <c r="M163" s="54"/>
       <c r="N163" s="54"/>
     </row>
-    <row r="164" spans="2:14" ht="23.5">
+    <row r="164" spans="2:14" ht="24">
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="51"/>
@@ -8282,19 +8704,19 @@
       <c r="M164" s="54"/>
       <c r="N164" s="54"/>
     </row>
-    <row r="165" spans="2:14" ht="18">
+    <row r="165" spans="2:14" ht="18.75">
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="51"/>
       <c r="E165" s="51"/>
     </row>
-    <row r="166" spans="2:14" ht="18">
+    <row r="166" spans="2:14" ht="18.75">
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="51"/>
       <c r="E166" s="51"/>
     </row>
-    <row r="167" spans="2:14" ht="18">
+    <row r="167" spans="2:14" ht="18.75">
       <c r="B167" s="51"/>
       <c r="C167" s="51"/>
       <c r="D167" s="51"/>
@@ -8340,9 +8762,6 @@
     <mergeCell ref="Q117:V117"/>
     <mergeCell ref="O81:V82"/>
     <mergeCell ref="O83:V84"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="F103:G103"/>
@@ -8355,6 +8774,22 @@
     <mergeCell ref="O43:Q43"/>
     <mergeCell ref="O44:Q44"/>
     <mergeCell ref="F74:G74"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N48:V48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="N38:Q38"/>
     <mergeCell ref="E72:E81"/>
     <mergeCell ref="D82:D83"/>
     <mergeCell ref="E82:E83"/>
@@ -8364,24 +8799,18 @@
     <mergeCell ref="O75:V76"/>
     <mergeCell ref="O77:V78"/>
     <mergeCell ref="O79:V80"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N48:V48"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E33:E40"/>
     <mergeCell ref="F25:G25"/>
@@ -8399,17 +8828,9 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="O87:V88"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="T38:U38"/>
     <mergeCell ref="S57:V57"/>
     <mergeCell ref="S56:V56"/>
     <mergeCell ref="S55:V55"/>
@@ -8419,10 +8840,6 @@
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="S50:V50"/>
     <mergeCell ref="S49:V49"/>
-    <mergeCell ref="S58:V58"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="F138:G138"/>
@@ -8458,11 +8875,12 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="P2:S11"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="F125:G125"/>
     <mergeCell ref="F126:G126"/>
@@ -8482,6 +8900,11 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="O87:V88"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="O46:P46"/>
     <mergeCell ref="P154:V154"/>
     <mergeCell ref="N91:V108"/>
     <mergeCell ref="Q112:V112"/>
@@ -8530,10 +8953,6 @@
     <mergeCell ref="F118:G118"/>
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="F120:G120"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="N83:N84"/>
     <mergeCell ref="N85:N86"/>
     <mergeCell ref="N87:N88"/>
     <mergeCell ref="N89:N90"/>
@@ -8544,17 +8963,20 @@
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
     <mergeCell ref="F85:G85"/>
     <mergeCell ref="F86:G86"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="F121:G121"/>
-    <mergeCell ref="P2:S11"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
@@ -8570,8 +8992,12 @@
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="Q22:S22"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="R17:S17"/>
@@ -8581,28 +9007,21 @@
     <mergeCell ref="C155:K155"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C32:C50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C51:C69"/>
-    <mergeCell ref="B51:B69"/>
-    <mergeCell ref="B70:B99"/>
-    <mergeCell ref="C70:C99"/>
-    <mergeCell ref="B100:B128"/>
-    <mergeCell ref="C100:C128"/>
-    <mergeCell ref="B129:B147"/>
-    <mergeCell ref="C129:C147"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="D72:D81"/>
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="F68:G68"/>
@@ -8616,27 +9035,30 @@
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B100:B128"/>
+    <mergeCell ref="C100:C128"/>
+    <mergeCell ref="B129:B147"/>
+    <mergeCell ref="C129:C147"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="D72:D81"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C32:C50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C51:C69"/>
+    <mergeCell ref="B51:B69"/>
+    <mergeCell ref="B70:B99"/>
+    <mergeCell ref="C70:C99"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F76:G76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations xWindow="551" yWindow="410" count="24">
@@ -8699,59 +9121,59 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="9" width="9.83203125" customWidth="1"/>
+    <col min="8" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="233" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
+        <v>357</v>
+      </c>
+      <c r="C1" s="238" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="65">
         <v>6</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F2" s="69"/>
       <c r="G2" s="68" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I2" s="68" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="66" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
@@ -8824,7 +9246,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="66" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -8867,7 +9289,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="66" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -9181,10 +9603,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="103.08203125" customWidth="1"/>
-    <col min="9" max="9" width="35.58203125" customWidth="1"/>
+    <col min="2" max="2" width="103.125" customWidth="1"/>
+    <col min="9" max="9" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9196,11 +9618,11 @@
         <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;IF(Skill1=100,"",NAME1&amp;Skill1)&amp;IF(Skill2=100,"",NAME2&amp;Skill2)&amp;IF(Skill3=100,"",NAME3&amp;Skill3)&amp;IF(Skill4=100,"",NAME4&amp;Skill4)&amp;IF(Skill5=100,"",NAME5&amp;Skill5)&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18&amp;A19&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A36&amp;A35&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50&amp;A51&amp;A52&amp;A53&amp;A54&amp;A55&amp;A56&amp;A57&amp;A58&amp;A59&amp;A60&amp;A61&amp;A62&amp;A63&amp;A64&amp;A65&amp;A66&amp;A67&amp;A68&amp;A69&amp;A70&amp;A71&amp;A72&amp;A73&amp;A74&amp;A75&amp;A76&amp;A77&amp;A78&amp;A79&amp;A80&amp;A82&amp;A81&amp;A83&amp;A84&amp;A85&amp;A86&amp;A87&amp;A88&amp;A89&amp;A90&amp;A91&amp;A92&amp;A93&amp;A94&amp;A95&amp;A96&amp;A97&amp;A98&amp;A99&amp;A100&amp;A101&amp;A102&amp;A103&amp;A104&amp;A105&amp;A106&amp;A107&amp;A108&amp;A109&amp;A110&amp;A111&amp;A112&amp;A113&amp;A114&amp;A115&amp;A116&amp;A117&amp;A118&amp;A119&amp;A120&amp;A121&amp;A122&amp;A123&amp;A124&amp;A125&amp;A126&amp;A127&amp;A128&amp;A129&amp;A130&amp;A131&amp;A132&amp;A133&amp;A134&amp;A135&amp;A136&amp;A137&amp;A138&amp;A139&amp;A140&amp;A141&amp;A142&amp;A143</f>
         <v/>
       </c>
-      <c r="E1" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="E1" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="str">
@@ -9208,13 +9630,13 @@
         <v/>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
         <v>162</v>
-      </c>
-      <c r="G2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -9223,10 +9645,10 @@
         <v/>
       </c>
       <c r="D3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3">
         <v>-2</v>
@@ -9241,10 +9663,10 @@
         <v/>
       </c>
       <c r="D4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -9259,7 +9681,7 @@
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9274,10 +9696,10 @@
         <v/>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -9289,10 +9711,10 @@
         <v/>
       </c>
       <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
         <v>204</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9304,10 +9726,10 @@
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -9319,10 +9741,10 @@
         <v/>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -9370,10 +9792,10 @@
         <f>IF(人物卡!K18=0,"",人物卡!F18&amp;人物卡!K18)</f>
         <v/>
       </c>
-      <c r="E15" s="121" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="121"/>
+      <c r="E15" s="203" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="203"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="str">
@@ -9381,10 +9803,10 @@
         <v/>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9393,7 +9815,7 @@
         <v/>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17">
         <v>-2</v>
@@ -9405,7 +9827,7 @@
         <v/>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -9417,7 +9839,7 @@
         <v/>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9429,7 +9851,7 @@
         <v/>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -9441,7 +9863,7 @@
         <v/>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -9453,7 +9875,7 @@
         <v/>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -9465,7 +9887,7 @@
         <v/>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -10207,129 +10629,129 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="52.25" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="13" max="13" width="19.08203125" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
     <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="29.08203125" customWidth="1"/>
+    <col min="17" max="17" width="29.125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>215</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>216</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>217</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>218</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>219</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>222</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" t="s">
         <v>223</v>
       </c>
-      <c r="M1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>225</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>226</v>
       </c>
-      <c r="S1" t="s">
-        <v>227</v>
-      </c>
       <c r="T1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>229</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" t="s">
         <v>231</v>
       </c>
-      <c r="G2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" t="s">
         <v>232</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>233</v>
-      </c>
-      <c r="R2" t="s">
-        <v>234</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -10337,55 +10759,55 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
         <v>235</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
         <v>236</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>237</v>
       </c>
-      <c r="D3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" t="s">
         <v>238</v>
       </c>
-      <c r="G3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
-      </c>
-      <c r="H3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>242</v>
-      </c>
-      <c r="R3" t="s">
-        <v>243</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -10393,52 +10815,52 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" t="s">
-        <v>248</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -10446,49 +10868,52 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="M5" t="s">
+        <v>390</v>
       </c>
       <c r="N5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="R5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -10496,55 +10921,55 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>397</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>386</v>
+      </c>
+      <c r="N6" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" t="s">
         <v>258</v>
       </c>
-      <c r="D6" t="s">
+      <c r="R6" t="s">
         <v>259</v>
       </c>
-      <c r="E6" t="s">
+      <c r="S6" t="s">
         <v>260</v>
-      </c>
-      <c r="F6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K6" t="s">
-        <v>263</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M6" t="s">
-        <v>306</v>
-      </c>
-      <c r="N6" t="s">
-        <v>305</v>
-      </c>
-      <c r="O6" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R6" t="s">
-        <v>265</v>
-      </c>
-      <c r="S6" t="s">
-        <v>266</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -10552,49 +10977,52 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
         <v>208</v>
       </c>
-      <c r="I7" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" t="s">
-        <v>255</v>
-      </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>388</v>
+      </c>
+      <c r="N7" t="s">
+        <v>293</v>
       </c>
       <c r="O7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="R7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -10602,207 +11030,219 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="R8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="M10" t="s">
+        <v>391</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" t="s">
         <v>208</v>
       </c>
-      <c r="E11" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" t="s">
-        <v>289</v>
-      </c>
       <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" t="s">
         <v>208</v>
       </c>
-      <c r="H11" t="s">
-        <v>290</v>
-      </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="K11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="M11" t="s">
+        <v>389</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="S12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" t="s">
+        <v>383</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" t="s">
+        <v>387</v>
+      </c>
+      <c r="N13" t="s">
         <v>296</v>
       </c>
-      <c r="G13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="M13" t="s">
-        <v>301</v>
-      </c>
-      <c r="N13" t="s">
-        <v>307</v>
-      </c>
       <c r="O13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="R13" t="s">
+        <v>289</v>
+      </c>
+      <c r="T13" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10819,10 +11259,398 @@
       <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158B009A-555D-4C41-BFD4-438D465726D5}">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{02D20438-1756-446F-917B-E6A4455CB43B}">
+      <formula1>"基础框架"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{16F29A43-6A0F-49F4-AEE4-E231F839461F}">
+      <formula1>"机甲,义体"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="6">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C40441-1544-42ED-82E5-F95D81FA8015}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>60</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>30</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="73">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="6">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="6">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J3" s="6">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+6)</f>
+        <v>65</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H4" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="24">
+        <f ca="1">5*(RANDBETWEEN(1,6)+RANDBETWEEN(1,6)+RANDBETWEEN(1,6))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="73">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="73">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="73">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="73">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>